--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA8AA5-6DAF-4FF1-B745-6601CE04A8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8FD97C-6648-4DA0-A281-5D07C78D6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -903,10 +903,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h08,S3d0419h08,S4aH2,S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h09,S3aH2,S3d0419h16,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3aH3,S3c0312h10,S3c0312h07,S4aH5,S2b0205h10,S2b0205h18,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15</t>
-  </si>
-  <si>
-    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH1,S2b0205h21,S3aH7,S5aH8,S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3aH8,S3c0312h05,S3d0419h24,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3d0419h02,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h04,S3d0419h20,S4aH8,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S1aH8,S3c0312h19,S5aH1,S2b0205h22,S3aH1,S3c0312h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22</t>
+    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h08,S3d0419h08,S4aH2,S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h09,S3aH2,S3d0419h16,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h07,S4aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3</t>
+  </si>
+  <si>
+    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH1,S2b0205h21,S3aH7,S5aH8,S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3aH8,S3c0312h05,S3d0419h24,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h02,S3c0312h06,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S3c0312h01,S3c0312h23,S3d0419h21,S1aH8,S3c0312h19,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH1,S2b0205h21,S3aH7,S5aH8,S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3aH8,S3c0312h05,S3d0419h24,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3d0419h02,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h04,S3d0419h20,S4aH8,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S1aH8,S3c0312h19,S5aH1,S2b0205h22,S3aH1,S3c0312h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22</v>
+        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH1,S2b0205h21,S3aH7,S5aH8,S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3aH8,S3c0312h05,S3d0419h24,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h02,S3c0312h06,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S3c0312h01,S3c0312h23,S3d0419h21,S1aH8,S3c0312h19,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h08,S3d0419h08,S4aH2,S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h09,S3aH2,S3d0419h16,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3aH3,S3c0312h10,S3c0312h07,S4aH5,S2b0205h10,S2b0205h18,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15</v>
+        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h08,S3d0419h08,S4aH2,S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h09,S3aH2,S3d0419h16,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h07,S4aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD37D62-229C-418B-BA3E-B1C46E74830F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C54801-A5EA-451B-BA4E-522DA8CAF76F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2836,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D9862A-7864-4751-9478-250464B62CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2DB80-A90E-4CD0-AD3B-B48FAE35CBFE}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2906,7 +2906,7 @@
         <v>168</v>
       </c>
       <c r="I4">
-        <v>10.092012840000001</v>
+        <v>0.38815433999999999</v>
       </c>
       <c r="J4" t="s">
         <v>283</v>
@@ -2929,7 +2929,7 @@
         <v>171</v>
       </c>
       <c r="C5">
-        <v>5.4027999999999997E-4</v>
+        <v>2.0780000000000001E-5</v>
       </c>
       <c r="D5" t="s">
         <v>169</v>
@@ -2941,7 +2941,7 @@
         <v>171</v>
       </c>
       <c r="I5">
-        <v>1.48215626</v>
+        <v>5.7006010000000003E-2</v>
       </c>
       <c r="J5" t="s">
         <v>283</v>
@@ -2964,7 +2964,7 @@
         <v>172</v>
       </c>
       <c r="C6">
-        <v>1.7008627999999999</v>
+        <v>6.5417799999999998E-2</v>
       </c>
       <c r="D6" t="s">
         <v>169</v>
@@ -2976,7 +2976,7 @@
         <v>172</v>
       </c>
       <c r="I6">
-        <v>1.0018670999999999</v>
+        <v>3.8533350000000001E-2</v>
       </c>
       <c r="J6" t="s">
         <v>283</v>
@@ -2999,7 +2999,7 @@
         <v>173</v>
       </c>
       <c r="C7">
-        <v>3.0822659400000001</v>
+        <v>0.11854869</v>
       </c>
       <c r="D7" t="s">
         <v>169</v>
@@ -3011,7 +3011,7 @@
         <v>173</v>
       </c>
       <c r="I7">
-        <v>1.13838478</v>
+        <v>4.3784030000000002E-2</v>
       </c>
       <c r="J7" t="s">
         <v>283</v>
@@ -3034,7 +3034,7 @@
         <v>174</v>
       </c>
       <c r="C8">
-        <v>9.5282985199999999</v>
+        <v>0.36647301999999998</v>
       </c>
       <c r="D8" t="s">
         <v>169</v>
@@ -3046,7 +3046,7 @@
         <v>174</v>
       </c>
       <c r="I8">
-        <v>4.7551298600000003</v>
+        <v>0.18288961000000001</v>
       </c>
       <c r="J8" t="s">
         <v>283</v>
@@ -3069,7 +3069,7 @@
         <v>175</v>
       </c>
       <c r="C9">
-        <v>5.7137074800000001</v>
+        <v>0.21975797999999999</v>
       </c>
       <c r="D9" t="s">
         <v>169</v>
@@ -3081,7 +3081,7 @@
         <v>175</v>
       </c>
       <c r="I9">
-        <v>5.7252917800000001</v>
+        <v>0.22020353000000001</v>
       </c>
       <c r="J9" t="s">
         <v>283</v>
@@ -3095,7 +3095,7 @@
         <v>176</v>
       </c>
       <c r="C10">
-        <v>1.0225799999999999E-3</v>
+        <v>3.9329999999999998E-5</v>
       </c>
       <c r="D10" t="s">
         <v>169</v>
@@ -3107,7 +3107,7 @@
         <v>176</v>
       </c>
       <c r="I10">
-        <v>1.4282910200000001</v>
+        <v>5.493427E-2</v>
       </c>
       <c r="J10" t="s">
         <v>283</v>
@@ -3133,7 +3133,7 @@
         <v>177</v>
       </c>
       <c r="I11">
-        <v>6.8952213200000001</v>
+        <v>0.26520082</v>
       </c>
       <c r="J11" t="s">
         <v>283</v>
@@ -3159,7 +3159,7 @@
         <v>178</v>
       </c>
       <c r="I12">
-        <v>11.232969539999999</v>
+        <v>0.43203729000000002</v>
       </c>
       <c r="J12" t="s">
         <v>283</v>
@@ -3173,7 +3173,7 @@
         <v>179</v>
       </c>
       <c r="C13">
-        <v>0.87208836000000001</v>
+        <v>3.354186E-2</v>
       </c>
       <c r="D13" t="s">
         <v>169</v>
@@ -3185,7 +3185,7 @@
         <v>179</v>
       </c>
       <c r="I13">
-        <v>0.90260507999999995</v>
+        <v>3.4715579999999996E-2</v>
       </c>
       <c r="J13" t="s">
         <v>283</v>
@@ -3199,7 +3199,7 @@
         <v>180</v>
       </c>
       <c r="C14">
-        <v>3.32372508</v>
+        <v>0.12783558</v>
       </c>
       <c r="D14" t="s">
         <v>169</v>
@@ -3211,7 +3211,7 @@
         <v>180</v>
       </c>
       <c r="I14">
-        <v>0.75354942000000003</v>
+        <v>2.8982669999999999E-2</v>
       </c>
       <c r="J14" t="s">
         <v>283</v>
@@ -3225,7 +3225,7 @@
         <v>181</v>
       </c>
       <c r="C15">
-        <v>3.8972777999999999</v>
+        <v>0.14989530000000001</v>
       </c>
       <c r="D15" t="s">
         <v>169</v>
@@ -3237,7 +3237,7 @@
         <v>181</v>
       </c>
       <c r="I15">
-        <v>1.37151768</v>
+        <v>5.2750680000000001E-2</v>
       </c>
       <c r="J15" t="s">
         <v>283</v>
@@ -3251,7 +3251,7 @@
         <v>182</v>
       </c>
       <c r="C16">
-        <v>13.163501</v>
+        <v>0.50628850000000003</v>
       </c>
       <c r="D16" t="s">
         <v>169</v>
@@ -3263,7 +3263,7 @@
         <v>182</v>
       </c>
       <c r="I16">
-        <v>12.16905612</v>
+        <v>0.46804061999999996</v>
       </c>
       <c r="J16" t="s">
         <v>283</v>
@@ -3277,7 +3277,7 @@
         <v>183</v>
       </c>
       <c r="C17">
-        <v>9.85036442</v>
+        <v>0.37886017</v>
       </c>
       <c r="D17" t="s">
         <v>169</v>
@@ -3289,7 +3289,7 @@
         <v>183</v>
       </c>
       <c r="I17">
-        <v>14.11013526</v>
+        <v>0.54269750999999999</v>
       </c>
       <c r="J17" t="s">
         <v>283</v>
@@ -3303,7 +3303,7 @@
         <v>184</v>
       </c>
       <c r="C18">
-        <v>0.73029710000000003</v>
+        <v>2.8088350000000002E-2</v>
       </c>
       <c r="D18" t="s">
         <v>169</v>
@@ -3315,7 +3315,7 @@
         <v>184</v>
       </c>
       <c r="I18">
-        <v>1.7723381</v>
+        <v>6.8166850000000001E-2</v>
       </c>
       <c r="J18" t="s">
         <v>283</v>
@@ -3341,7 +3341,7 @@
         <v>185</v>
       </c>
       <c r="I19">
-        <v>8.5258282199999993</v>
+        <v>0.32791647000000002</v>
       </c>
       <c r="J19" t="s">
         <v>283</v>
@@ -3367,7 +3367,7 @@
         <v>186</v>
       </c>
       <c r="I20">
-        <v>6.4518480000000003E-2</v>
+        <v>2.4814799999999999E-3</v>
       </c>
       <c r="J20" t="s">
         <v>283</v>
@@ -3393,7 +3393,7 @@
         <v>187</v>
       </c>
       <c r="I21">
-        <v>5.298514E-2</v>
+        <v>2.0378900000000001E-3</v>
       </c>
       <c r="J21" t="s">
         <v>283</v>
@@ -3419,7 +3419,7 @@
         <v>188</v>
       </c>
       <c r="I22">
-        <v>4.8943180000000003E-2</v>
+        <v>1.88243E-3</v>
       </c>
       <c r="J22" t="s">
         <v>283</v>
@@ -3445,7 +3445,7 @@
         <v>189</v>
       </c>
       <c r="I23">
-        <v>6.2119460000000001E-2</v>
+        <v>2.3892100000000001E-3</v>
       </c>
       <c r="J23" t="s">
         <v>283</v>
@@ -3471,7 +3471,7 @@
         <v>190</v>
       </c>
       <c r="I24">
-        <v>8.4507540000000006E-2</v>
+        <v>3.2502900000000003E-3</v>
       </c>
       <c r="J24" t="s">
         <v>283</v>
@@ -3497,7 +3497,7 @@
         <v>191</v>
       </c>
       <c r="I25">
-        <v>0.12037922</v>
+        <v>4.6299699999999997E-3</v>
       </c>
       <c r="J25" t="s">
         <v>283</v>
@@ -3523,7 +3523,7 @@
         <v>192</v>
       </c>
       <c r="I26">
-        <v>0.20039785999999998</v>
+        <v>7.7076100000000002E-3</v>
       </c>
       <c r="J26" t="s">
         <v>283</v>
@@ -3549,7 +3549,7 @@
         <v>193</v>
       </c>
       <c r="I27">
-        <v>0.31167447999999998</v>
+        <v>1.198748E-2</v>
       </c>
       <c r="J27" t="s">
         <v>283</v>
@@ -3575,7 +3575,7 @@
         <v>194</v>
       </c>
       <c r="I28">
-        <v>0.45499454</v>
+        <v>1.7499790000000001E-2</v>
       </c>
       <c r="J28" t="s">
         <v>283</v>
@@ -3589,7 +3589,7 @@
         <v>195</v>
       </c>
       <c r="C29">
-        <v>9.8916999999999998E-3</v>
+        <v>3.8045E-4</v>
       </c>
       <c r="D29" t="s">
         <v>169</v>
@@ -3601,7 +3601,7 @@
         <v>195</v>
       </c>
       <c r="I29">
-        <v>0.69379829999999998</v>
+        <v>2.6684550000000001E-2</v>
       </c>
       <c r="J29" t="s">
         <v>283</v>
@@ -3615,7 +3615,7 @@
         <v>196</v>
       </c>
       <c r="C30">
-        <v>0.12238902</v>
+        <v>4.7072699999999995E-3</v>
       </c>
       <c r="D30" t="s">
         <v>169</v>
@@ -3627,7 +3627,7 @@
         <v>196</v>
       </c>
       <c r="I30">
-        <v>0.90571363999999999</v>
+        <v>3.4835140000000001E-2</v>
       </c>
       <c r="J30" t="s">
         <v>283</v>
@@ -3641,7 +3641,7 @@
         <v>197</v>
       </c>
       <c r="C31">
-        <v>0.16908267999999999</v>
+        <v>6.5031799999999999E-3</v>
       </c>
       <c r="D31" t="s">
         <v>169</v>
@@ -3653,7 +3653,7 @@
         <v>197</v>
       </c>
       <c r="I31">
-        <v>1.0445603999999999</v>
+        <v>4.01754E-2</v>
       </c>
       <c r="J31" t="s">
         <v>283</v>
@@ -3667,7 +3667,7 @@
         <v>198</v>
       </c>
       <c r="C32">
-        <v>0.27297009999999999</v>
+        <v>1.0498850000000001E-2</v>
       </c>
       <c r="D32" t="s">
         <v>169</v>
@@ -3679,7 +3679,7 @@
         <v>198</v>
       </c>
       <c r="I32">
-        <v>2.89417882</v>
+        <v>0.11131457</v>
       </c>
       <c r="J32" t="s">
         <v>283</v>
@@ -3693,7 +3693,7 @@
         <v>199</v>
       </c>
       <c r="C33">
-        <v>0.20873736000000001</v>
+        <v>8.02836E-3</v>
       </c>
       <c r="D33" t="s">
         <v>169</v>
@@ -3705,7 +3705,7 @@
         <v>199</v>
       </c>
       <c r="I33">
-        <v>3.3923838000000002</v>
+        <v>0.13047630000000002</v>
       </c>
       <c r="J33" t="s">
         <v>283</v>
@@ -3719,7 +3719,7 @@
         <v>200</v>
       </c>
       <c r="C34">
-        <v>0.18604066</v>
+        <v>7.1554100000000001E-3</v>
       </c>
       <c r="D34" t="s">
         <v>169</v>
@@ -3731,7 +3731,7 @@
         <v>200</v>
       </c>
       <c r="I34">
-        <v>2.1360851200000002</v>
+        <v>8.215712E-2</v>
       </c>
       <c r="J34" t="s">
         <v>283</v>
@@ -3745,7 +3745,7 @@
         <v>201</v>
       </c>
       <c r="C35">
-        <v>0.18253976</v>
+        <v>7.02076E-3</v>
       </c>
       <c r="D35" t="s">
         <v>169</v>
@@ -3757,7 +3757,7 @@
         <v>201</v>
       </c>
       <c r="I35">
-        <v>1.3374992800000001</v>
+        <v>5.144228E-2</v>
       </c>
       <c r="J35" t="s">
         <v>283</v>
@@ -3771,7 +3771,7 @@
         <v>202</v>
       </c>
       <c r="C36">
-        <v>0.10680592</v>
+        <v>4.1079200000000001E-3</v>
       </c>
       <c r="D36" t="s">
         <v>169</v>
@@ -3783,7 +3783,7 @@
         <v>202</v>
       </c>
       <c r="I36">
-        <v>0.62872212000000005</v>
+        <v>2.4181620000000001E-2</v>
       </c>
       <c r="J36" t="s">
         <v>283</v>
@@ -3797,7 +3797,7 @@
         <v>203</v>
       </c>
       <c r="C37">
-        <v>2.893306E-2</v>
+        <v>1.1128100000000001E-3</v>
       </c>
       <c r="D37" t="s">
         <v>169</v>
@@ -3809,7 +3809,7 @@
         <v>203</v>
       </c>
       <c r="I37">
-        <v>0.30913402000000001</v>
+        <v>1.1889770000000001E-2</v>
       </c>
       <c r="J37" t="s">
         <v>283</v>
@@ -3823,7 +3823,7 @@
         <v>204</v>
       </c>
       <c r="C38">
-        <v>3.3982000000000001E-4</v>
+        <v>1.307E-5</v>
       </c>
       <c r="D38" t="s">
         <v>169</v>
@@ -3835,7 +3835,7 @@
         <v>204</v>
       </c>
       <c r="I38">
-        <v>0.16218618000000001</v>
+        <v>6.23793E-3</v>
       </c>
       <c r="J38" t="s">
         <v>283</v>
@@ -3861,7 +3861,7 @@
         <v>205</v>
       </c>
       <c r="I39">
-        <v>9.7643260000000009E-2</v>
+        <v>3.7555100000000001E-3</v>
       </c>
       <c r="J39" t="s">
         <v>283</v>
@@ -3887,7 +3887,7 @@
         <v>206</v>
       </c>
       <c r="I40">
-        <v>0.12323636</v>
+        <v>4.7398600000000003E-3</v>
       </c>
       <c r="J40" t="s">
         <v>283</v>
@@ -3913,7 +3913,7 @@
         <v>207</v>
       </c>
       <c r="I41">
-        <v>0.10105472</v>
+        <v>3.8867199999999998E-3</v>
       </c>
       <c r="J41" t="s">
         <v>283</v>
@@ -3939,7 +3939,7 @@
         <v>208</v>
       </c>
       <c r="I42">
-        <v>0.18951036000000002</v>
+        <v>7.2888600000000003E-3</v>
       </c>
       <c r="J42" t="s">
         <v>283</v>
@@ -3965,7 +3965,7 @@
         <v>209</v>
       </c>
       <c r="I43">
-        <v>0.25014807999999999</v>
+        <v>9.6210800000000006E-3</v>
       </c>
       <c r="J43" t="s">
         <v>283</v>
@@ -3979,7 +3979,7 @@
         <v>210</v>
       </c>
       <c r="C44">
-        <v>31.986874920000002</v>
+        <v>1.2302644199999999</v>
       </c>
       <c r="D44" t="s">
         <v>169</v>
@@ -3991,7 +3991,7 @@
         <v>210</v>
       </c>
       <c r="I44">
-        <v>21.653377200000001</v>
+        <v>0.83282219999999996</v>
       </c>
       <c r="J44" t="s">
         <v>283</v>
@@ -4005,7 +4005,7 @@
         <v>211</v>
       </c>
       <c r="C45">
-        <v>42.50170756</v>
+        <v>1.6346810599999999</v>
       </c>
       <c r="D45" t="s">
         <v>169</v>
@@ -4017,7 +4017,7 @@
         <v>211</v>
       </c>
       <c r="I45">
-        <v>4.9871673799999998</v>
+        <v>0.19181413</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -4031,7 +4031,7 @@
         <v>212</v>
       </c>
       <c r="C46">
-        <v>53.904195799999997</v>
+        <v>2.0732382999999999</v>
       </c>
       <c r="D46" t="s">
         <v>169</v>
@@ -4043,7 +4043,7 @@
         <v>212</v>
       </c>
       <c r="I46">
-        <v>8.7812961600000001</v>
+        <v>0.33774216000000001</v>
       </c>
       <c r="J46" t="s">
         <v>283</v>
@@ -4057,7 +4057,7 @@
         <v>213</v>
       </c>
       <c r="C47">
-        <v>60.448575460000001</v>
+        <v>2.3249452100000001</v>
       </c>
       <c r="D47" t="s">
         <v>169</v>
@@ -4069,7 +4069,7 @@
         <v>213</v>
       </c>
       <c r="I47">
-        <v>23.5988948</v>
+        <v>0.90764979999999995</v>
       </c>
       <c r="J47" t="s">
         <v>283</v>
@@ -4083,7 +4083,7 @@
         <v>214</v>
       </c>
       <c r="C48">
-        <v>187.48248115999999</v>
+        <v>7.2108646600000004</v>
       </c>
       <c r="D48" t="s">
         <v>169</v>
@@ -4095,7 +4095,7 @@
         <v>214</v>
       </c>
       <c r="I48">
-        <v>121.22213064</v>
+        <v>4.6623896399999998</v>
       </c>
       <c r="J48" t="s">
         <v>283</v>
@@ -4109,7 +4109,7 @@
         <v>215</v>
       </c>
       <c r="C49">
-        <v>149.86382527999999</v>
+        <v>5.7639932800000002</v>
       </c>
       <c r="D49" t="s">
         <v>169</v>
@@ -4121,7 +4121,7 @@
         <v>215</v>
       </c>
       <c r="I49">
-        <v>119.0969403</v>
+        <v>4.5806515499999998</v>
       </c>
       <c r="J49" t="s">
         <v>283</v>
@@ -4135,7 +4135,7 @@
         <v>216</v>
       </c>
       <c r="C50">
-        <v>29.193223280000002</v>
+        <v>1.1228162799999999</v>
       </c>
       <c r="D50" t="s">
         <v>169</v>
@@ -4147,7 +4147,7 @@
         <v>216</v>
       </c>
       <c r="I50">
-        <v>12.576629000000001</v>
+        <v>0.48371649999999999</v>
       </c>
       <c r="J50" t="s">
         <v>283</v>
@@ -4161,7 +4161,7 @@
         <v>217</v>
       </c>
       <c r="C51">
-        <v>19.054409920000001</v>
+        <v>0.73286192000000006</v>
       </c>
       <c r="D51" t="s">
         <v>169</v>
@@ -4173,7 +4173,7 @@
         <v>217</v>
       </c>
       <c r="I51">
-        <v>18.201612780000001</v>
+        <v>0.70006203</v>
       </c>
       <c r="J51" t="s">
         <v>283</v>
@@ -4395,7 +4395,7 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>6.4729599999999998E-3</v>
+        <v>2.4896E-4</v>
       </c>
       <c r="D60" t="s">
         <v>169</v>
@@ -4421,7 +4421,7 @@
         <v>227</v>
       </c>
       <c r="C61">
-        <v>5.7734819999999999E-2</v>
+        <v>2.2205699999999998E-3</v>
       </c>
       <c r="D61" t="s">
         <v>169</v>
@@ -4433,7 +4433,7 @@
         <v>227</v>
       </c>
       <c r="I61">
-        <v>1.1973000000000001E-3</v>
+        <v>4.6050000000000001E-5</v>
       </c>
       <c r="J61" t="s">
         <v>283</v>
@@ -4447,7 +4447,7 @@
         <v>228</v>
       </c>
       <c r="C62">
-        <v>0.1137162</v>
+        <v>4.3737000000000003E-3</v>
       </c>
       <c r="D62" t="s">
         <v>169</v>
@@ -4459,7 +4459,7 @@
         <v>228</v>
       </c>
       <c r="I62">
-        <v>1.1973000000000001E-3</v>
+        <v>4.6050000000000001E-5</v>
       </c>
       <c r="J62" t="s">
         <v>283</v>
@@ -4473,7 +4473,7 @@
         <v>229</v>
       </c>
       <c r="C63">
-        <v>0.18910605999999999</v>
+        <v>7.2733099999999998E-3</v>
       </c>
       <c r="D63" t="s">
         <v>169</v>
@@ -4485,7 +4485,7 @@
         <v>229</v>
       </c>
       <c r="I63">
-        <v>5.03594E-3</v>
+        <v>1.9369E-4</v>
       </c>
       <c r="J63" t="s">
         <v>283</v>
@@ -4499,7 +4499,7 @@
         <v>230</v>
       </c>
       <c r="C64">
-        <v>0.22338368</v>
+        <v>8.5916800000000008E-3</v>
       </c>
       <c r="D64" t="s">
         <v>169</v>
@@ -4511,7 +4511,7 @@
         <v>230</v>
       </c>
       <c r="I64">
-        <v>2.5895999999999999E-2</v>
+        <v>9.9599999999999992E-4</v>
       </c>
       <c r="J64" t="s">
         <v>283</v>
@@ -4525,7 +4525,7 @@
         <v>231</v>
       </c>
       <c r="C65">
-        <v>0.22257611999999999</v>
+        <v>8.5606199999999997E-3</v>
       </c>
       <c r="D65" t="s">
         <v>169</v>
@@ -4537,7 +4537,7 @@
         <v>231</v>
       </c>
       <c r="I65">
-        <v>0.10102274</v>
+        <v>3.8854900000000001E-3</v>
       </c>
       <c r="J65" t="s">
         <v>283</v>
@@ -4551,7 +4551,7 @@
         <v>232</v>
       </c>
       <c r="C66">
-        <v>0.11550734</v>
+        <v>4.4425899999999997E-3</v>
       </c>
       <c r="D66" t="s">
         <v>169</v>
@@ -4563,7 +4563,7 @@
         <v>232</v>
       </c>
       <c r="I66">
-        <v>8.4333340000000007E-2</v>
+        <v>3.2435900000000002E-3</v>
       </c>
       <c r="J66" t="s">
         <v>283</v>
@@ -4577,7 +4577,7 @@
         <v>233</v>
       </c>
       <c r="C67">
-        <v>0.16751462</v>
+        <v>6.4428699999999998E-3</v>
       </c>
       <c r="D67" t="s">
         <v>169</v>
@@ -4589,7 +4589,7 @@
         <v>233</v>
       </c>
       <c r="I67">
-        <v>0.11944036000000001</v>
+        <v>4.59386E-3</v>
       </c>
       <c r="J67" t="s">
         <v>283</v>
@@ -4603,7 +4603,7 @@
         <v>234</v>
       </c>
       <c r="C68">
-        <v>0.12043928</v>
+        <v>4.6322799999999999E-3</v>
       </c>
       <c r="D68" t="s">
         <v>169</v>
@@ -4615,7 +4615,7 @@
         <v>234</v>
       </c>
       <c r="I68">
-        <v>0.15965351999999999</v>
+        <v>6.14052E-3</v>
       </c>
       <c r="J68" t="s">
         <v>283</v>
@@ -4629,7 +4629,7 @@
         <v>235</v>
       </c>
       <c r="C69">
-        <v>9.4574740000000004E-2</v>
+        <v>3.6374900000000002E-3</v>
       </c>
       <c r="D69" t="s">
         <v>169</v>
@@ -4641,7 +4641,7 @@
         <v>235</v>
       </c>
       <c r="I69">
-        <v>0.11763934</v>
+        <v>4.5245900000000002E-3</v>
       </c>
       <c r="J69" t="s">
         <v>283</v>
@@ -4655,7 +4655,7 @@
         <v>236</v>
       </c>
       <c r="C70">
-        <v>7.7659400000000003E-2</v>
+        <v>2.9869000000000002E-3</v>
       </c>
       <c r="D70" t="s">
         <v>169</v>
@@ -4667,7 +4667,7 @@
         <v>236</v>
       </c>
       <c r="I70">
-        <v>2.2923679999999998E-2</v>
+        <v>8.8168000000000003E-4</v>
       </c>
       <c r="J70" t="s">
         <v>283</v>
@@ -4693,7 +4693,7 @@
         <v>237</v>
       </c>
       <c r="I71">
-        <v>1.8753539999999999E-2</v>
+        <v>7.2129000000000008E-4</v>
       </c>
       <c r="J71" t="s">
         <v>283</v>
@@ -4719,7 +4719,7 @@
         <v>238</v>
       </c>
       <c r="I72">
-        <v>1.2341420000000001E-2</v>
+        <v>4.7467000000000006E-4</v>
       </c>
       <c r="J72" t="s">
         <v>283</v>
@@ -4745,7 +4745,7 @@
         <v>239</v>
       </c>
       <c r="I73">
-        <v>5.5796000000000003E-4</v>
+        <v>2.1460000000000001E-5</v>
       </c>
       <c r="J73" t="s">
         <v>283</v>
@@ -4993,7 +4993,7 @@
         <v>249</v>
       </c>
       <c r="C83">
-        <v>4.41714E-3</v>
+        <v>1.6988999999999999E-4</v>
       </c>
       <c r="D83" t="s">
         <v>169</v>
@@ -5019,7 +5019,7 @@
         <v>250</v>
       </c>
       <c r="C84">
-        <v>1.424488E-2</v>
+        <v>5.4787999999999994E-4</v>
       </c>
       <c r="D84" t="s">
         <v>169</v>
@@ -5045,7 +5045,7 @@
         <v>251</v>
       </c>
       <c r="C85">
-        <v>8.3206500000000003E-2</v>
+        <v>3.20025E-3</v>
       </c>
       <c r="D85" t="s">
         <v>169</v>
@@ -5071,7 +5071,7 @@
         <v>252</v>
       </c>
       <c r="C86">
-        <v>0.10853492000000001</v>
+        <v>4.1744199999999999E-3</v>
       </c>
       <c r="D86" t="s">
         <v>169</v>
@@ -5083,7 +5083,7 @@
         <v>252</v>
       </c>
       <c r="I86">
-        <v>1.638E-4</v>
+        <v>6.2999999999999998E-6</v>
       </c>
       <c r="J86" t="s">
         <v>283</v>
@@ -5097,7 +5097,7 @@
         <v>253</v>
       </c>
       <c r="C87">
-        <v>0.12143716</v>
+        <v>4.6706600000000001E-3</v>
       </c>
       <c r="D87" t="s">
         <v>169</v>
@@ -5123,7 +5123,7 @@
         <v>254</v>
       </c>
       <c r="C88">
-        <v>9.4640260000000004E-2</v>
+        <v>3.6400099999999999E-3</v>
       </c>
       <c r="D88" t="s">
         <v>169</v>
@@ -5135,7 +5135,7 @@
         <v>254</v>
       </c>
       <c r="I88">
-        <v>1.638E-4</v>
+        <v>6.2999999999999998E-6</v>
       </c>
       <c r="J88" t="s">
         <v>283</v>
@@ -5149,7 +5149,7 @@
         <v>255</v>
       </c>
       <c r="C89">
-        <v>6.957236E-2</v>
+        <v>2.67586E-3</v>
       </c>
       <c r="D89" t="s">
         <v>169</v>
@@ -5161,7 +5161,7 @@
         <v>255</v>
       </c>
       <c r="I89">
-        <v>9.0063999999999997E-4</v>
+        <v>3.464E-5</v>
       </c>
       <c r="J89" t="s">
         <v>283</v>
@@ -5175,7 +5175,7 @@
         <v>256</v>
       </c>
       <c r="C90">
-        <v>4.9832899999999999E-2</v>
+        <v>1.91665E-3</v>
       </c>
       <c r="D90" t="s">
         <v>169</v>
@@ -5187,7 +5187,7 @@
         <v>256</v>
       </c>
       <c r="I90">
-        <v>1.4874600000000001E-3</v>
+        <v>5.7210000000000003E-5</v>
       </c>
       <c r="J90" t="s">
         <v>283</v>
@@ -5201,7 +5201,7 @@
         <v>257</v>
       </c>
       <c r="C91">
-        <v>6.249412E-2</v>
+        <v>2.40362E-3</v>
       </c>
       <c r="D91" t="s">
         <v>169</v>
@@ -5213,7 +5213,7 @@
         <v>257</v>
       </c>
       <c r="I91">
-        <v>3.4049599999999998E-3</v>
+        <v>1.3096000000000001E-4</v>
       </c>
       <c r="J91" t="s">
         <v>283</v>
@@ -5227,7 +5227,7 @@
         <v>258</v>
       </c>
       <c r="C92">
-        <v>4.4710380000000001E-2</v>
+        <v>1.71963E-3</v>
       </c>
       <c r="D92" t="s">
         <v>169</v>
@@ -5239,7 +5239,7 @@
         <v>258</v>
       </c>
       <c r="I92">
-        <v>2.5955800000000001E-3</v>
+        <v>9.9829999999999998E-5</v>
       </c>
       <c r="J92" t="s">
         <v>283</v>
@@ -5253,7 +5253,7 @@
         <v>259</v>
       </c>
       <c r="C93">
-        <v>3.4754199999999999E-2</v>
+        <v>1.3366999999999999E-3</v>
       </c>
       <c r="D93" t="s">
         <v>169</v>
@@ -5265,7 +5265,7 @@
         <v>259</v>
       </c>
       <c r="I93">
-        <v>2.05192E-3</v>
+        <v>7.892000000000001E-5</v>
       </c>
       <c r="J93" t="s">
         <v>283</v>
@@ -5279,7 +5279,7 @@
         <v>260</v>
       </c>
       <c r="C94">
-        <v>4.1560479999999997E-2</v>
+        <v>1.59848E-3</v>
       </c>
       <c r="D94" t="s">
         <v>169</v>
@@ -5291,7 +5291,7 @@
         <v>260</v>
       </c>
       <c r="I94">
-        <v>1.5914600000000001E-3</v>
+        <v>6.1209999999999992E-5</v>
       </c>
       <c r="J94" t="s">
         <v>283</v>
@@ -5305,7 +5305,7 @@
         <v>261</v>
       </c>
       <c r="C95">
-        <v>4.0271400000000002E-3</v>
+        <v>1.5489E-4</v>
       </c>
       <c r="D95" t="s">
         <v>169</v>
@@ -5317,7 +5317,7 @@
         <v>261</v>
       </c>
       <c r="I95">
-        <v>5.0673999999999999E-4</v>
+        <v>1.9490000000000001E-5</v>
       </c>
       <c r="J95" t="s">
         <v>283</v>
@@ -5343,7 +5343,7 @@
         <v>262</v>
       </c>
       <c r="I96">
-        <v>3.5056839999999999E-2</v>
+        <v>1.34834E-3</v>
       </c>
       <c r="J96" t="s">
         <v>283</v>
@@ -5369,7 +5369,7 @@
         <v>263</v>
       </c>
       <c r="I97">
-        <v>5.7189600000000004E-3</v>
+        <v>2.1996E-4</v>
       </c>
       <c r="J97" t="s">
         <v>283</v>
@@ -5395,7 +5395,7 @@
         <v>264</v>
       </c>
       <c r="I98">
-        <v>6.1107799999999997E-3</v>
+        <v>2.3503E-4</v>
       </c>
       <c r="J98" t="s">
         <v>283</v>
@@ -5421,7 +5421,7 @@
         <v>265</v>
       </c>
       <c r="I99">
-        <v>7.50126E-3</v>
+        <v>2.8851000000000001E-4</v>
       </c>
       <c r="J99" t="s">
         <v>283</v>
@@ -5447,7 +5447,7 @@
         <v>266</v>
       </c>
       <c r="I100">
-        <v>52.16823222</v>
+        <v>2.00647047</v>
       </c>
       <c r="J100" t="s">
         <v>283</v>
@@ -5461,7 +5461,7 @@
         <v>267</v>
       </c>
       <c r="C101">
-        <v>0.71702825999999997</v>
+        <v>2.757801E-2</v>
       </c>
       <c r="D101" t="s">
         <v>169</v>
@@ -5473,7 +5473,7 @@
         <v>267</v>
       </c>
       <c r="I101">
-        <v>7.9826180200000003</v>
+        <v>0.30702376999999997</v>
       </c>
       <c r="J101" t="s">
         <v>283</v>
@@ -5487,7 +5487,7 @@
         <v>268</v>
       </c>
       <c r="C102">
-        <v>2.1138808600000001</v>
+        <v>8.1303109999999998E-2</v>
       </c>
       <c r="D102" t="s">
         <v>169</v>
@@ -5499,7 +5499,7 @@
         <v>268</v>
       </c>
       <c r="I102">
-        <v>6.2253952799999999</v>
+        <v>0.23943828</v>
       </c>
       <c r="J102" t="s">
         <v>283</v>
@@ -5513,7 +5513,7 @@
         <v>269</v>
       </c>
       <c r="C103">
-        <v>2.71101948</v>
+        <v>0.10426998</v>
       </c>
       <c r="D103" t="s">
         <v>169</v>
@@ -5525,7 +5525,7 @@
         <v>269</v>
       </c>
       <c r="I103">
-        <v>8.6764579200000007</v>
+        <v>0.33370991999999999</v>
       </c>
       <c r="J103" t="s">
         <v>283</v>
@@ -5539,7 +5539,7 @@
         <v>270</v>
       </c>
       <c r="C104">
-        <v>9.8605494</v>
+        <v>0.37925189999999998</v>
       </c>
       <c r="D104" t="s">
         <v>169</v>
@@ -5551,7 +5551,7 @@
         <v>270</v>
       </c>
       <c r="I104">
-        <v>35.3154477</v>
+        <v>1.35828645</v>
       </c>
       <c r="J104" t="s">
         <v>283</v>
@@ -5565,7 +5565,7 @@
         <v>271</v>
       </c>
       <c r="C105">
-        <v>5.2243271599999996</v>
+        <v>0.20093565999999999</v>
       </c>
       <c r="D105" t="s">
         <v>169</v>
@@ -5577,7 +5577,7 @@
         <v>271</v>
       </c>
       <c r="I105">
-        <v>14.5984046</v>
+        <v>0.56147709999999995</v>
       </c>
       <c r="J105" t="s">
         <v>283</v>
@@ -5603,7 +5603,7 @@
         <v>272</v>
       </c>
       <c r="I106">
-        <v>1.4956973199999999</v>
+        <v>5.7526819999999999E-2</v>
       </c>
       <c r="J106" t="s">
         <v>283</v>
@@ -5629,7 +5629,7 @@
         <v>273</v>
       </c>
       <c r="I107">
-        <v>10.62533966</v>
+        <v>0.40866690999999999</v>
       </c>
       <c r="J107" t="s">
         <v>283</v>
@@ -5655,7 +5655,7 @@
         <v>274</v>
       </c>
       <c r="I108">
-        <v>32.101991740000003</v>
+        <v>1.23469199</v>
       </c>
       <c r="J108" t="s">
         <v>283</v>
@@ -5669,7 +5669,7 @@
         <v>275</v>
       </c>
       <c r="C109">
-        <v>9.1233999999999998E-4</v>
+        <v>3.5089999999999998E-5</v>
       </c>
       <c r="D109" t="s">
         <v>169</v>
@@ -5681,7 +5681,7 @@
         <v>275</v>
       </c>
       <c r="I109">
-        <v>3.7044347600000003</v>
+        <v>0.14247826</v>
       </c>
       <c r="J109" t="s">
         <v>283</v>
@@ -5695,7 +5695,7 @@
         <v>276</v>
       </c>
       <c r="C110">
-        <v>2.0506488599999999</v>
+        <v>7.8871109999999994E-2</v>
       </c>
       <c r="D110" t="s">
         <v>169</v>
@@ -5707,7 +5707,7 @@
         <v>276</v>
       </c>
       <c r="I110">
-        <v>2.6620739599999999</v>
+        <v>0.10238746</v>
       </c>
       <c r="J110" t="s">
         <v>283</v>
@@ -5721,7 +5721,7 @@
         <v>277</v>
       </c>
       <c r="C111">
-        <v>3.7431321199999998</v>
+        <v>0.14396661999999999</v>
       </c>
       <c r="D111" t="s">
         <v>169</v>
@@ -5733,7 +5733,7 @@
         <v>277</v>
       </c>
       <c r="I111">
-        <v>2.7839344000000001</v>
+        <v>0.1070744</v>
       </c>
       <c r="J111" t="s">
         <v>283</v>
@@ -5747,7 +5747,7 @@
         <v>278</v>
       </c>
       <c r="C112">
-        <v>12.97409568</v>
+        <v>0.49900368000000001</v>
       </c>
       <c r="D112" t="s">
         <v>169</v>
@@ -5759,7 +5759,7 @@
         <v>278</v>
       </c>
       <c r="I112">
-        <v>14.58714634</v>
+        <v>0.56104409</v>
       </c>
       <c r="J112" t="s">
         <v>283</v>
@@ -5773,7 +5773,7 @@
         <v>279</v>
       </c>
       <c r="C113">
-        <v>6.8953536599999996</v>
+        <v>0.26520590999999999</v>
       </c>
       <c r="D113" t="s">
         <v>169</v>
@@ -5785,7 +5785,7 @@
         <v>279</v>
       </c>
       <c r="I113">
-        <v>10.42812784</v>
+        <v>0.40108184000000002</v>
       </c>
       <c r="J113" t="s">
         <v>283</v>
@@ -5811,7 +5811,7 @@
         <v>280</v>
       </c>
       <c r="I114">
-        <v>1.5201349799999999</v>
+        <v>5.8466730000000001E-2</v>
       </c>
       <c r="J114" t="s">
         <v>283</v>
@@ -5837,7 +5837,7 @@
         <v>281</v>
       </c>
       <c r="I115">
-        <v>15.24654482</v>
+        <v>0.58640557000000004</v>
       </c>
       <c r="J115" t="s">
         <v>283</v>
@@ -5852,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70143604-AE52-42AD-8E77-B70BB6BACED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AA4E91-3B6B-49B4-810B-A89AF6D895A9}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5904,10 +5904,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>0.82214611872146115</v>
+        <v>3.1621004566210045E-2</v>
       </c>
       <c r="C4">
-        <v>0.52458941401685621</v>
+        <v>2.0176515923725238E-2</v>
       </c>
       <c r="D4" t="s">
         <v>168</v>
@@ -5936,10 +5936,10 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C5">
-        <v>0.11648923915835886</v>
+        <v>4.4803553522445696E-3</v>
       </c>
       <c r="D5" t="s">
         <v>171</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C6">
-        <v>0.11355029046399658</v>
+        <v>4.3673188639998693E-3</v>
       </c>
       <c r="D6" t="s">
         <v>172</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C7">
-        <v>0.11328311330996362</v>
+        <v>4.3570428196139871E-3</v>
       </c>
       <c r="D7" t="s">
         <v>173</v>
@@ -6018,7 +6018,7 @@
         <v>173</v>
       </c>
       <c r="J7">
-        <v>4.5987113753480245E-3</v>
+        <v>4.5987113753480236E-3</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -6032,10 +6032,10 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>0.27602739726027398</v>
+        <v>1.0616438356164383E-2</v>
       </c>
       <c r="C8">
-        <v>0.35614714632589983</v>
+        <v>1.3697967166380762E-2</v>
       </c>
       <c r="D8" t="s">
         <v>174</v>
@@ -6050,7 +6050,7 @@
         <v>174</v>
       </c>
       <c r="J8">
-        <v>1.3729924395517687E-2</v>
+        <v>1.3729924395517686E-2</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>0.27602739726027398</v>
+        <v>1.0616438356164383E-2</v>
       </c>
       <c r="C9">
-        <v>0.49694950650125569</v>
+        <v>1.9113442557740595E-2</v>
       </c>
       <c r="D9" t="s">
         <v>175</v>
@@ -6096,10 +6096,10 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C10">
-        <v>0.13893212009712519</v>
+        <v>5.3435430806586613E-3</v>
       </c>
       <c r="D10" t="s">
         <v>176</v>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>0.46004566210045661</v>
+        <v>1.7694063926940638E-2</v>
       </c>
       <c r="C11">
-        <v>0.34733030024281303</v>
+        <v>1.3358857701646654E-2</v>
       </c>
       <c r="D11" t="s">
         <v>177</v>
@@ -6160,10 +6160,10 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>0.72123287671232872</v>
+        <v>2.7739726027397261E-2</v>
       </c>
       <c r="C12">
-        <v>0.45772617656564668</v>
+        <v>1.7604852944832564E-2</v>
       </c>
       <c r="D12" t="s">
         <v>178</v>
@@ -6192,10 +6192,10 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>8.0136986301369867E-2</v>
+        <v>3.0821917808219177E-3</v>
       </c>
       <c r="C13">
-        <v>0.10145836958953836</v>
+        <v>3.9022449842130132E-3</v>
       </c>
       <c r="D13" t="s">
         <v>179</v>
@@ -6224,10 +6224,10 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>8.0136986301369867E-2</v>
+        <v>3.0821917808219177E-3</v>
       </c>
       <c r="C14">
-        <v>9.8898640081545419E-2</v>
+        <v>3.8037938492902082E-3</v>
       </c>
       <c r="D14" t="s">
         <v>180</v>
@@ -6242,7 +6242,7 @@
         <v>180</v>
       </c>
       <c r="J14">
-        <v>4.0578943223028418E-3</v>
+        <v>4.0578943223028409E-3</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -6256,10 +6256,10 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
-        <v>8.0136986301369867E-2</v>
+        <v>3.0821917808219177E-3</v>
       </c>
       <c r="C15">
-        <v>9.8665937399000578E-2</v>
+        <v>3.7948437461154073E-3</v>
       </c>
       <c r="D15" t="s">
         <v>181</v>
@@ -6274,7 +6274,7 @@
         <v>181</v>
       </c>
       <c r="J15">
-        <v>4.0475173991919309E-3</v>
+        <v>4.0475173991919317E-3</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>0.2404109589041096</v>
+        <v>9.2465753424657536E-3</v>
       </c>
       <c r="C16">
-        <v>0.31019267583223536</v>
+        <v>1.193048753200905E-2</v>
       </c>
       <c r="D16" t="s">
         <v>182</v>
@@ -6320,10 +6320,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>0.2404109589041096</v>
+        <v>9.2465753424657536E-3</v>
       </c>
       <c r="C17">
-        <v>0.43282698953335164</v>
+        <v>1.6647191905128908E-2</v>
       </c>
       <c r="D17" t="s">
         <v>183</v>
@@ -6338,7 +6338,7 @@
         <v>183</v>
       </c>
       <c r="J17">
-        <v>1.2254155798922018E-2</v>
+        <v>1.2254155798922016E-2</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -6352,10 +6352,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>8.0136986301369867E-2</v>
+        <v>3.0821917808219177E-3</v>
       </c>
       <c r="C18">
-        <v>0.12100539492330259</v>
+        <v>4.6540536508962536E-3</v>
       </c>
       <c r="D18" t="s">
         <v>184</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>0.40068493150684931</v>
+        <v>1.5410958904109588E-2</v>
       </c>
       <c r="C19">
-        <v>0.30251348730825645</v>
+        <v>1.1635134127240635E-2</v>
       </c>
       <c r="D19" t="s">
         <v>185</v>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C20">
-        <v>5.6021016168195646E-4</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D20" t="s">
         <v>186</v>
@@ -6434,7 +6434,7 @@
         <v>186</v>
       </c>
       <c r="J20">
-        <v>1.0968426819169546E-4</v>
+        <v>1.0968426819169544E-4</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -6448,10 +6448,10 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C21">
-        <v>3.8783780424135448E-4</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D21" t="s">
         <v>187</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C22">
-        <v>4.3093089360150512E-4</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
@@ -6498,7 +6498,7 @@
         <v>188</v>
       </c>
       <c r="J22">
-        <v>1.0699701718687808E-4</v>
+        <v>1.0699701718687807E-4</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C23">
-        <v>3.7921918636932441E-4</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D23" t="s">
         <v>189</v>
@@ -6544,10 +6544,10 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C24">
-        <v>5.5159154380992649E-4</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D24" t="s">
         <v>190</v>
@@ -6562,7 +6562,7 @@
         <v>190</v>
       </c>
       <c r="J24">
-        <v>1.160716571185306E-4</v>
+        <v>1.1607165711853059E-4</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C25">
-        <v>1.499639509733237E-3</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D25" t="s">
         <v>191</v>
@@ -6594,7 +6594,7 @@
         <v>191</v>
       </c>
       <c r="J25">
-        <v>1.3025207395933616E-4</v>
+        <v>1.3025207395933613E-4</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -6608,10 +6608,10 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C26">
-        <v>4.3954951147353524E-3</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D26" t="s">
         <v>192</v>
@@ -6626,7 +6626,7 @@
         <v>192</v>
       </c>
       <c r="J26">
-        <v>1.446805447390479E-4</v>
+        <v>1.4468054473904787E-4</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -6640,10 +6640,10 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C27">
-        <v>4.9557052764173069E-3</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
@@ -6672,10 +6672,10 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C28">
-        <v>3.7921918636932448E-3</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D28" t="s">
         <v>194</v>
@@ -6690,7 +6690,7 @@
         <v>194</v>
       </c>
       <c r="J28">
-        <v>1.523702168451407E-4</v>
+        <v>1.5237021684514067E-4</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C29">
-        <v>3.7577173922051237E-3</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D29" t="s">
         <v>195</v>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C30">
-        <v>3.662912595612793E-3</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C31">
-        <v>3.6542939777407623E-3</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D31" t="s">
         <v>197</v>
@@ -6800,10 +6800,10 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C32">
-        <v>3.7060056849729421E-3</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D32" t="s">
         <v>198</v>
@@ -6832,10 +6832,10 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C33">
-        <v>3.8697594245415152E-3</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D33" t="s">
         <v>199</v>
@@ -6864,10 +6864,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C34">
-        <v>3.9128525139016665E-3</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D34" t="s">
         <v>200</v>
@@ -6896,10 +6896,10 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C35">
-        <v>4.4816812934556517E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D35" t="s">
         <v>201</v>
@@ -6914,7 +6914,7 @@
         <v>201</v>
       </c>
       <c r="J35">
-        <v>1.5327974795446351E-4</v>
+        <v>1.5327974795446348E-4</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C36">
-        <v>5.7744739742601678E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D36" t="s">
         <v>202</v>
@@ -6946,7 +6946,7 @@
         <v>202</v>
       </c>
       <c r="J36">
-        <v>1.5493344088050496E-4</v>
+        <v>1.5493344088050493E-4</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
@@ -6960,10 +6960,10 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C37">
-        <v>5.7744739742601678E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D37" t="s">
         <v>203</v>
@@ -6978,7 +6978,7 @@
         <v>203</v>
       </c>
       <c r="J37">
-        <v>1.5805478627840822E-4</v>
+        <v>1.5805478627840819E-4</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C38">
-        <v>4.4816812934556517E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D38" t="s">
         <v>204</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C39">
-        <v>4.0507503998541469E-3</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D39" t="s">
         <v>205</v>
@@ -7056,10 +7056,10 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C40">
-        <v>2.844143897769933E-3</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D40" t="s">
         <v>206</v>
@@ -7088,10 +7088,10 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B41">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C41">
-        <v>2.0684682892872243E-3</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D41" t="s">
         <v>207</v>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B42">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C42">
-        <v>1.465165038245117E-3</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D42" t="s">
         <v>208</v>
@@ -7138,7 +7138,7 @@
         <v>208</v>
       </c>
       <c r="J42">
-        <v>1.1778736352929863E-4</v>
+        <v>1.1778736352929861E-4</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B43">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C43">
-        <v>7.7567560848270896E-4</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D43" t="s">
         <v>209</v>
@@ -7170,7 +7170,7 @@
         <v>209</v>
       </c>
       <c r="J43">
-        <v>1.1747729610566585E-4</v>
+        <v>1.1747729610566584E-4</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -7184,10 +7184,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B44">
-        <v>6.4910958904109588</v>
+        <v>0.24965753424657533</v>
       </c>
       <c r="C44">
-        <v>4.1195355890908187</v>
+        <v>0.15844367650349306</v>
       </c>
       <c r="D44" t="s">
         <v>210</v>
@@ -7216,10 +7216,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B45">
-        <v>0.72123287671232872</v>
+        <v>2.7739726027397261E-2</v>
       </c>
       <c r="C45">
-        <v>0.91312532630584531</v>
+        <v>3.5120204857917135E-2</v>
       </c>
       <c r="D45" t="s">
         <v>211</v>
@@ -7234,7 +7234,7 @@
         <v>211</v>
       </c>
       <c r="J45">
-        <v>2.9066152857581299E-2</v>
+        <v>2.9066152857581296E-2</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -7248,10 +7248,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B46">
-        <v>0.72123287671232872</v>
+        <v>2.7739726027397261E-2</v>
       </c>
       <c r="C46">
-        <v>0.89008776073390872</v>
+        <v>3.4234144643611866E-2</v>
       </c>
       <c r="D46" t="s">
         <v>212</v>
@@ -7266,7 +7266,7 @@
         <v>212</v>
       </c>
       <c r="J46">
-        <v>2.8987726470563784E-2</v>
+        <v>2.8987726470563781E-2</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B47">
-        <v>0.72123287671232872</v>
+        <v>2.7739726027397261E-2</v>
       </c>
       <c r="C47">
-        <v>0.88799343659100494</v>
+        <v>3.4153593715038656E-2</v>
       </c>
       <c r="D47" t="s">
         <v>213</v>
@@ -7298,7 +7298,7 @@
         <v>213</v>
       </c>
       <c r="J47">
-        <v>2.8869136016605037E-2</v>
+        <v>2.8869136016605033E-2</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
@@ -7312,10 +7312,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B48">
-        <v>2.1636986301369863</v>
+        <v>8.3219178082191786E-2</v>
       </c>
       <c r="C48">
-        <v>2.7917340824901178</v>
+        <v>0.10737438778808148</v>
       </c>
       <c r="D48" t="s">
         <v>214</v>
@@ -7344,10 +7344,10 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B49">
-        <v>2.1636986301369863</v>
+        <v>8.3219178082191786E-2</v>
       </c>
       <c r="C49">
-        <v>3.8954429058001652</v>
+        <v>0.14982472714616019</v>
       </c>
       <c r="D49" t="s">
         <v>215</v>
@@ -7376,10 +7376,10 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B50">
-        <v>0.72123287671232872</v>
+        <v>2.7739726027397261E-2</v>
       </c>
       <c r="C50">
-        <v>1.089048554309723</v>
+        <v>4.1886482858066273E-2</v>
       </c>
       <c r="D50" t="s">
         <v>216</v>
@@ -7408,10 +7408,10 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B51">
-        <v>3.6061643835616439</v>
+        <v>0.1386986301369863</v>
       </c>
       <c r="C51">
-        <v>2.7226213857743078</v>
+        <v>0.1047162071451657</v>
       </c>
       <c r="D51" t="s">
         <v>217</v>
@@ -7440,10 +7440,10 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B52">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C52">
-        <v>5.6021016168195646E-4</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D52" t="s">
         <v>218</v>
@@ -7458,7 +7458,7 @@
         <v>218</v>
       </c>
       <c r="J52">
-        <v>1.0380033555835185E-4</v>
+        <v>1.0380033555835183E-4</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B53">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C53">
-        <v>3.8783780424135448E-4</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D53" t="s">
         <v>219</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B54">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C54">
-        <v>4.3093089360150512E-4</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D54" t="s">
         <v>220</v>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C55">
-        <v>3.7921918636932441E-4</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D55" t="s">
         <v>221</v>
@@ -7554,7 +7554,7 @@
         <v>221</v>
       </c>
       <c r="J55">
-        <v>1.0167120591607345E-4</v>
+        <v>1.0167120591607344E-4</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
@@ -7568,10 +7568,10 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B56">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C56">
-        <v>5.5159154380992649E-4</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D56" t="s">
         <v>222</v>
@@ -7586,7 +7586,7 @@
         <v>222</v>
       </c>
       <c r="J56">
-        <v>1.1120061140238736E-4</v>
+        <v>1.1120061140238737E-4</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
@@ -7600,10 +7600,10 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B57">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C57">
-        <v>1.499639509733237E-3</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D57" t="s">
         <v>223</v>
@@ -7632,10 +7632,10 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C58">
-        <v>4.3954951147353524E-3</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D58" t="s">
         <v>224</v>
@@ -7664,10 +7664,10 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B59">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C59">
-        <v>4.9557052764173069E-3</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D59" t="s">
         <v>225</v>
@@ -7696,10 +7696,10 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C60">
-        <v>3.7921918636932448E-3</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D60" t="s">
         <v>226</v>
@@ -7728,10 +7728,10 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C61">
-        <v>3.7577173922051237E-3</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D61" t="s">
         <v>227</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C62">
-        <v>3.662912595612793E-3</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D62" t="s">
         <v>228</v>
@@ -7792,10 +7792,10 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B63">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C63">
-        <v>3.6542939777407623E-3</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D63" t="s">
         <v>229</v>
@@ -7824,10 +7824,10 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B64">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C64">
-        <v>3.7060056849729421E-3</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D64" t="s">
         <v>230</v>
@@ -7856,10 +7856,10 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B65">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C65">
-        <v>3.8697594245415152E-3</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D65" t="s">
         <v>231</v>
@@ -7874,7 +7874,7 @@
         <v>231</v>
       </c>
       <c r="J65">
-        <v>1.4005755296181091E-4</v>
+        <v>1.4005755296181088E-4</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B66">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C66">
-        <v>3.9128525139016665E-3</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D66" t="s">
         <v>232</v>
@@ -7920,10 +7920,10 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B67">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C67">
-        <v>4.4816812934556517E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D67" t="s">
         <v>233</v>
@@ -7952,10 +7952,10 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B68">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C68">
-        <v>5.7744739742601678E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D68" t="s">
         <v>234</v>
@@ -7984,10 +7984,10 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B69">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C69">
-        <v>5.7744739742601678E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D69" t="s">
         <v>235</v>
@@ -8016,10 +8016,10 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B70">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C70">
-        <v>4.4816812934556517E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D70" t="s">
         <v>236</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B71">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C71">
-        <v>4.0507503998541469E-3</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D71" t="s">
         <v>237</v>
@@ -8080,10 +8080,10 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B72">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C72">
-        <v>2.844143897769933E-3</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D72" t="s">
         <v>238</v>
@@ -8112,10 +8112,10 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B73">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C73">
-        <v>2.0684682892872243E-3</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D73" t="s">
         <v>239</v>
@@ -8130,7 +8130,7 @@
         <v>239</v>
       </c>
       <c r="J73">
-        <v>1.1378450659932718E-4</v>
+        <v>1.1378450659932717E-4</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
@@ -8144,10 +8144,10 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B74">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C74">
-        <v>1.465165038245117E-3</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D74" t="s">
         <v>240</v>
@@ -8176,10 +8176,10 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B75">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C75">
-        <v>7.7567560848270896E-4</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D75" t="s">
         <v>241</v>
@@ -8208,10 +8208,10 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B76">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C76">
-        <v>5.6021016168195646E-4</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D76" t="s">
         <v>242</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B77">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C77">
-        <v>3.8783780424135448E-4</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D77" t="s">
         <v>243</v>
@@ -8272,10 +8272,10 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B78">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C78">
-        <v>4.3093089360150512E-4</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D78" t="s">
         <v>244</v>
@@ -8304,10 +8304,10 @@
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B79">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C79">
-        <v>3.7921918636932441E-4</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D79" t="s">
         <v>245</v>
@@ -8322,7 +8322,7 @@
         <v>245</v>
       </c>
       <c r="J79">
-        <v>8.8654877615855661E-5</v>
+        <v>8.8654877615855648E-5</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B80">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C80">
-        <v>5.5159154380992649E-4</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D80" t="s">
         <v>246</v>
@@ -8354,7 +8354,7 @@
         <v>246</v>
       </c>
       <c r="J80">
-        <v>1.0217381728624459E-4</v>
+        <v>1.0217381728624458E-4</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B81">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C81">
-        <v>1.499639509733237E-3</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D81" t="s">
         <v>247</v>
@@ -8400,10 +8400,10 @@
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B82">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C82">
-        <v>4.3954951147353524E-3</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D82" t="s">
         <v>248</v>
@@ -8432,10 +8432,10 @@
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B83">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C83">
-        <v>4.9557052764173069E-3</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D83" t="s">
         <v>249</v>
@@ -8464,10 +8464,10 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C84">
-        <v>3.7921918636932448E-3</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D84" t="s">
         <v>250</v>
@@ -8496,10 +8496,10 @@
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C85">
-        <v>3.7577173922051237E-3</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D85" t="s">
         <v>251</v>
@@ -8528,10 +8528,10 @@
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C86">
-        <v>3.662912595612793E-3</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D86" t="s">
         <v>252</v>
@@ -8560,10 +8560,10 @@
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C87">
-        <v>3.6542939777407623E-3</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D87" t="s">
         <v>253</v>
@@ -8592,10 +8592,10 @@
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C88">
-        <v>3.7060056849729421E-3</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D88" t="s">
         <v>254</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C89">
-        <v>3.8697594245415152E-3</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D89" t="s">
         <v>255</v>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C90">
-        <v>3.9128525139016665E-3</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D90" t="s">
         <v>256</v>
@@ -8688,10 +8688,10 @@
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C91">
-        <v>4.4816812934556517E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D91" t="s">
         <v>257</v>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C92">
-        <v>5.7744739742601678E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D92" t="s">
         <v>258</v>
@@ -8752,10 +8752,10 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C93">
-        <v>5.7744739742601678E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D93" t="s">
         <v>259</v>
@@ -8770,7 +8770,7 @@
         <v>259</v>
       </c>
       <c r="J93">
-        <v>1.344001581824776E-4</v>
+        <v>1.3440015818247757E-4</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
@@ -8784,10 +8784,10 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C94">
-        <v>4.4816812934556517E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D94" t="s">
         <v>260</v>
@@ -8816,10 +8816,10 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C95">
-        <v>4.0507503998541469E-3</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D95" t="s">
         <v>261</v>
@@ -8834,7 +8834,7 @@
         <v>261</v>
       </c>
       <c r="J95">
-        <v>1.2274162305388528E-4</v>
+        <v>1.2274162305388531E-4</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
@@ -8848,10 +8848,10 @@
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C96">
-        <v>2.844143897769933E-3</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D96" t="s">
         <v>262</v>
@@ -8866,7 +8866,7 @@
         <v>262</v>
       </c>
       <c r="J96">
-        <v>1.129228213055141E-4</v>
+        <v>1.1292282130551409E-4</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
@@ -8880,10 +8880,10 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B97">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C97">
-        <v>2.0684682892872243E-3</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D97" t="s">
         <v>263</v>
@@ -8898,7 +8898,7 @@
         <v>263</v>
       </c>
       <c r="J97">
-        <v>1.0622536495504618E-4</v>
+        <v>1.0622536495504617E-4</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
@@ -8912,10 +8912,10 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C98">
-        <v>1.465165038245117E-3</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D98" t="s">
         <v>264</v>
@@ -8944,10 +8944,10 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99">
-        <v>2.9680365296803654E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C99">
-        <v>7.7567560848270896E-4</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D99" t="s">
         <v>265</v>
@@ -8976,10 +8976,10 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B100">
-        <v>0.80136986301369861</v>
+        <v>3.0821917808219176E-2</v>
       </c>
       <c r="C100">
-        <v>0.50858464062849629</v>
+        <v>1.9560947716480627E-2</v>
       </c>
       <c r="D100" t="s">
         <v>266</v>
@@ -9008,10 +9008,10 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B101">
-        <v>8.9041095890410954E-2</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C101">
-        <v>0.11273152176615372</v>
+        <v>4.3358277602366805E-3</v>
       </c>
       <c r="D101" t="s">
         <v>267</v>
@@ -9040,10 +9040,10 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B102">
-        <v>8.9041095890410954E-2</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C102">
-        <v>0.10988737786838378</v>
+        <v>4.2264376103224545E-3</v>
       </c>
       <c r="D102" t="s">
         <v>268</v>
@@ -9058,7 +9058,7 @@
         <v>268</v>
       </c>
       <c r="J102">
-        <v>4.0943306157139557E-3</v>
+        <v>4.0943306157139566E-3</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
@@ -9072,10 +9072,10 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B103">
-        <v>8.9041095890410954E-2</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C103">
-        <v>0.10962881933222285</v>
+        <v>4.2164930512393417E-3</v>
       </c>
       <c r="D103" t="s">
         <v>269</v>
@@ -9104,10 +9104,10 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B104">
-        <v>0.26712328767123289</v>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="C104">
-        <v>0.3446585287024837</v>
+        <v>1.3256097257787832E-2</v>
       </c>
       <c r="D104" t="s">
         <v>270</v>
@@ -9136,10 +9136,10 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B105">
-        <v>0.26712328767123289</v>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="C105">
-        <v>0.48091887725927968</v>
+        <v>1.8496879894587676E-2</v>
       </c>
       <c r="D105" t="s">
         <v>271</v>
@@ -9154,7 +9154,7 @@
         <v>271</v>
       </c>
       <c r="J105">
-        <v>1.2429881121297502E-2</v>
+        <v>1.24298811212975E-2</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
@@ -9168,10 +9168,10 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B106">
-        <v>8.9041095890410954E-2</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C106">
-        <v>0.13445043880366953</v>
+        <v>5.1711707232180593E-3</v>
       </c>
       <c r="D106" t="s">
         <v>272</v>
@@ -9200,10 +9200,10 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B107">
-        <v>0.4452054794520548</v>
+        <v>1.7123287671232876E-2</v>
       </c>
       <c r="C107">
-        <v>0.33612609700917384</v>
+        <v>1.2927926808045149E-2</v>
       </c>
       <c r="D107" t="s">
         <v>273</v>
@@ -9232,10 +9232,10 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B108">
-        <v>0.82808219178082187</v>
+        <v>3.1849315068493152E-2</v>
       </c>
       <c r="C108">
-        <v>0.52553746198277951</v>
+        <v>2.021297930702998E-2</v>
       </c>
       <c r="D108" t="s">
         <v>274</v>
@@ -9264,10 +9264,10 @@
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B109">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C109">
-        <v>0.11648923915835886</v>
+        <v>4.4803553522445696E-3</v>
       </c>
       <c r="D109" t="s">
         <v>275</v>
@@ -9296,10 +9296,10 @@
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B110">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C110">
-        <v>0.11355029046399658</v>
+        <v>4.3673188639998693E-3</v>
       </c>
       <c r="D110" t="s">
         <v>276</v>
@@ -9328,10 +9328,10 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B111">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C111">
-        <v>0.11328311330996362</v>
+        <v>4.3570428196139871E-3</v>
       </c>
       <c r="D111" t="s">
         <v>277</v>
@@ -9360,10 +9360,10 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B112">
-        <v>0.27602739726027398</v>
+        <v>1.0616438356164383E-2</v>
       </c>
       <c r="C112">
-        <v>0.35614714632589983</v>
+        <v>1.3697967166380762E-2</v>
       </c>
       <c r="D112" t="s">
         <v>278</v>
@@ -9392,10 +9392,10 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B113">
-        <v>0.27602739726027398</v>
+        <v>1.0616438356164383E-2</v>
       </c>
       <c r="C113">
-        <v>0.49694950650125569</v>
+        <v>1.9113442557740595E-2</v>
       </c>
       <c r="D113" t="s">
         <v>279</v>
@@ -9424,10 +9424,10 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B114">
-        <v>9.200913242009133E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C114">
-        <v>0.13893212009712519</v>
+        <v>5.3435430806586613E-3</v>
       </c>
       <c r="D114" t="s">
         <v>280</v>
@@ -9456,10 +9456,10 @@
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B115">
-        <v>0.46004566210045661</v>
+        <v>1.7694063926940638E-2</v>
       </c>
       <c r="C115">
-        <v>0.34733030024281303</v>
+        <v>1.3358857701646654E-2</v>
       </c>
       <c r="D115" t="s">
         <v>281</v>
@@ -9474,7 +9474,7 @@
         <v>281</v>
       </c>
       <c r="J115">
-        <v>1.8492680597292418E-2</v>
+        <v>1.8492680597292414E-2</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
@@ -9494,7 +9494,7 @@
         <v>168</v>
       </c>
       <c r="J116">
-        <v>3.1492645655570931E-2</v>
+        <v>3.1492645655570937E-2</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.45">
@@ -9527,7 +9527,7 @@
         <v>173</v>
       </c>
       <c r="J119">
-        <v>3.5715262861139288E-3</v>
+        <v>3.5715262861139292E-3</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.45">
@@ -9560,7 +9560,7 @@
         <v>176</v>
       </c>
       <c r="J122">
-        <v>3.575195572391126E-3</v>
+        <v>3.5751955723911256E-3</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.45">
@@ -9648,7 +9648,7 @@
         <v>184</v>
       </c>
       <c r="J130">
-        <v>3.1126463068786355E-3</v>
+        <v>3.1126463068786351E-3</v>
       </c>
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.45">
@@ -9659,7 +9659,7 @@
         <v>185</v>
       </c>
       <c r="J131">
-        <v>1.5333542284141034E-2</v>
+        <v>1.5333542284141036E-2</v>
       </c>
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.45">
@@ -9703,7 +9703,7 @@
         <v>189</v>
       </c>
       <c r="J135">
-        <v>1.1223543960690153E-4</v>
+        <v>1.1223543960690154E-4</v>
       </c>
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.45">
@@ -9747,7 +9747,7 @@
         <v>193</v>
       </c>
       <c r="J139">
-        <v>1.1542192505815133E-4</v>
+        <v>1.1542192505815134E-4</v>
       </c>
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.45">
@@ -9758,7 +9758,7 @@
         <v>194</v>
       </c>
       <c r="J140">
-        <v>1.1537868916329041E-4</v>
+        <v>1.1537868916329043E-4</v>
       </c>
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.45">
@@ -9769,7 +9769,7 @@
         <v>195</v>
       </c>
       <c r="J141">
-        <v>1.1532104130347586E-4</v>
+        <v>1.1532104130347587E-4</v>
       </c>
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.45">
@@ -9868,7 +9868,7 @@
         <v>204</v>
       </c>
       <c r="J150">
-        <v>1.1568566401680294E-4</v>
+        <v>1.1568566401680296E-4</v>
       </c>
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.45">
@@ -9890,7 +9890,7 @@
         <v>206</v>
       </c>
       <c r="J152">
-        <v>1.1409170069293036E-4</v>
+        <v>1.1409170069293037E-4</v>
       </c>
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.45">
@@ -9923,7 +9923,7 @@
         <v>209</v>
       </c>
       <c r="J155">
-        <v>1.1294594947911597E-4</v>
+        <v>1.1294594947911599E-4</v>
       </c>
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.45">
@@ -9934,7 +9934,7 @@
         <v>210</v>
       </c>
       <c r="J156">
-        <v>0.24803399333220008</v>
+        <v>0.24803399333220011</v>
       </c>
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.45">
@@ -9945,7 +9945,7 @@
         <v>211</v>
       </c>
       <c r="J157">
-        <v>2.7966479890117753E-2</v>
+        <v>2.7966479890117756E-2</v>
       </c>
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.45">
@@ -9956,7 +9956,7 @@
         <v>212</v>
       </c>
       <c r="J158">
-        <v>2.7961011990614341E-2</v>
+        <v>2.7961011990614345E-2</v>
       </c>
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.45">
@@ -9967,7 +9967,7 @@
         <v>213</v>
       </c>
       <c r="J159">
-        <v>2.7952743846320443E-2</v>
+        <v>2.7952743846320439E-2</v>
       </c>
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.45">
@@ -10044,7 +10044,7 @@
         <v>220</v>
       </c>
       <c r="J166">
-        <v>1.1269687295142185E-4</v>
+        <v>1.1269687295142183E-4</v>
       </c>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.45">
@@ -10066,7 +10066,7 @@
         <v>222</v>
       </c>
       <c r="J168">
-        <v>1.1333388180237271E-4</v>
+        <v>1.1333388180237272E-4</v>
       </c>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.45">
@@ -10077,7 +10077,7 @@
         <v>223</v>
       </c>
       <c r="J169">
-        <v>1.1496387503862941E-4</v>
+        <v>1.1496387503862942E-4</v>
       </c>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.45">
@@ -10088,7 +10088,7 @@
         <v>224</v>
       </c>
       <c r="J170">
-        <v>1.1569167926878823E-4</v>
+        <v>1.1569167926878824E-4</v>
       </c>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.45">
@@ -10099,7 +10099,7 @@
         <v>225</v>
       </c>
       <c r="J171">
-        <v>1.1575509191458425E-4</v>
+        <v>1.1575509191458427E-4</v>
       </c>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.45">
@@ -10110,7 +10110,7 @@
         <v>226</v>
       </c>
       <c r="J172">
-        <v>1.1573059157416306E-4</v>
+        <v>1.1573059157416307E-4</v>
       </c>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.45">
@@ -10132,7 +10132,7 @@
         <v>228</v>
       </c>
       <c r="J174">
-        <v>1.1558647192462664E-4</v>
+        <v>1.1558647192462667E-4</v>
       </c>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.45">
@@ -10143,7 +10143,7 @@
         <v>229</v>
       </c>
       <c r="J175">
-        <v>1.1551152970686774E-4</v>
+        <v>1.1551152970686775E-4</v>
       </c>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.45">
@@ -10154,7 +10154,7 @@
         <v>230</v>
       </c>
       <c r="J176">
-        <v>1.1539191039775251E-4</v>
+        <v>1.1539191039775253E-4</v>
       </c>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.45">
@@ -10165,7 +10165,7 @@
         <v>231</v>
       </c>
       <c r="J177">
-        <v>1.1534579210990087E-4</v>
+        <v>1.1534579210990088E-4</v>
       </c>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.45">
@@ -10176,7 +10176,7 @@
         <v>232</v>
       </c>
       <c r="J178">
-        <v>1.1523770237274857E-4</v>
+        <v>1.1523770237274858E-4</v>
       </c>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.45">
@@ -10187,7 +10187,7 @@
         <v>233</v>
       </c>
       <c r="J179">
-        <v>1.1532417416247044E-4</v>
+        <v>1.1532417416247042E-4</v>
       </c>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.45">
@@ -10198,7 +10198,7 @@
         <v>234</v>
       </c>
       <c r="J180">
-        <v>1.1539191039775251E-4</v>
+        <v>1.1539191039775253E-4</v>
       </c>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.45">
@@ -10209,7 +10209,7 @@
         <v>235</v>
       </c>
       <c r="J181">
-        <v>1.1550432372439091E-4</v>
+        <v>1.1550432372439092E-4</v>
       </c>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.45">
@@ -10242,7 +10242,7 @@
         <v>238</v>
       </c>
       <c r="J184">
-        <v>1.1420004089608648E-4</v>
+        <v>1.142000408960865E-4</v>
       </c>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.45">
@@ -10264,7 +10264,7 @@
         <v>240</v>
       </c>
       <c r="J186">
-        <v>1.1300817139442045E-4</v>
+        <v>1.1300817139442047E-4</v>
       </c>
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.45">
@@ -10275,7 +10275,7 @@
         <v>241</v>
       </c>
       <c r="J187">
-        <v>1.1290008165726815E-4</v>
+        <v>1.1290008165726817E-4</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.45">
@@ -10319,7 +10319,7 @@
         <v>245</v>
       </c>
       <c r="J191">
-        <v>1.1258934342129433E-4</v>
+        <v>1.1258934342129435E-4</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.45">
@@ -10330,7 +10330,7 @@
         <v>246</v>
       </c>
       <c r="J192">
-        <v>1.135318859292624E-4</v>
+        <v>1.1353188592926243E-4</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.45">
@@ -10341,7 +10341,7 @@
         <v>247</v>
       </c>
       <c r="J193">
-        <v>1.1461566569377614E-4</v>
+        <v>1.1461566569377616E-4</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.45">
@@ -10363,7 +10363,7 @@
         <v>249</v>
       </c>
       <c r="J195">
-        <v>1.156821511003455E-4</v>
+        <v>1.1568215110034551E-4</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.45">
@@ -10374,7 +10374,7 @@
         <v>250</v>
       </c>
       <c r="J196">
-        <v>1.1574844613913225E-4</v>
+        <v>1.1574844613913226E-4</v>
       </c>
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.45">
@@ -10407,7 +10407,7 @@
         <v>253</v>
       </c>
       <c r="J199">
-        <v>1.1577006408656271E-4</v>
+        <v>1.1577006408656273E-4</v>
       </c>
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.45">
@@ -10418,7 +10418,7 @@
         <v>254</v>
       </c>
       <c r="J200">
-        <v>1.1581329998142362E-4</v>
+        <v>1.1581329998142364E-4</v>
       </c>
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.45">
@@ -10429,7 +10429,7 @@
         <v>255</v>
       </c>
       <c r="J201">
-        <v>1.1580032921296536E-4</v>
+        <v>1.1580032921296537E-4</v>
       </c>
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.45">
@@ -10440,7 +10440,7 @@
         <v>256</v>
       </c>
       <c r="J202">
-        <v>1.1578159365852561E-4</v>
+        <v>1.1578159365852563E-4</v>
       </c>
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.45">
@@ -10451,7 +10451,7 @@
         <v>257</v>
       </c>
       <c r="J203">
-        <v>1.1576285810408588E-4</v>
+        <v>1.157628581040859E-4</v>
       </c>
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.45">
@@ -10462,7 +10462,7 @@
         <v>258</v>
       </c>
       <c r="J204">
-        <v>1.1580897639193754E-4</v>
+        <v>1.1580897639193753E-4</v>
       </c>
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.45">
@@ -10473,7 +10473,7 @@
         <v>259</v>
       </c>
       <c r="J205">
-        <v>1.1577871126553489E-4</v>
+        <v>1.157787112655349E-4</v>
       </c>
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.45">
@@ -10517,7 +10517,7 @@
         <v>263</v>
       </c>
       <c r="J209">
-        <v>1.1381436044235374E-4</v>
+        <v>1.1381436044235377E-4</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
@@ -10528,7 +10528,7 @@
         <v>264</v>
       </c>
       <c r="J210">
-        <v>1.1294676015214461E-4</v>
+        <v>1.1294676015214463E-4</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
@@ -10550,7 +10550,7 @@
         <v>266</v>
       </c>
       <c r="J212">
-        <v>3.0632480431590829E-2</v>
+        <v>3.0632480431590833E-2</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.45">
@@ -10561,7 +10561,7 @@
         <v>267</v>
       </c>
       <c r="J213">
-        <v>3.4578293111261226E-3</v>
+        <v>3.4578293111261231E-3</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.45">
@@ -10583,7 +10583,7 @@
         <v>269</v>
       </c>
       <c r="J215">
-        <v>3.4553129820452172E-3</v>
+        <v>3.4553129820452176E-3</v>
       </c>
     </row>
     <row r="216" spans="8:10" x14ac:dyDescent="0.45">
@@ -10594,7 +10594,7 @@
         <v>270</v>
       </c>
       <c r="J216">
-        <v>1.0361680210491849E-2</v>
+        <v>1.0361680210491851E-2</v>
       </c>
     </row>
     <row r="217" spans="8:10" x14ac:dyDescent="0.45">
@@ -10605,7 +10605,7 @@
         <v>271</v>
       </c>
       <c r="J217">
-        <v>1.0379453045672679E-2</v>
+        <v>1.0379453045672681E-2</v>
       </c>
     </row>
     <row r="218" spans="8:10" x14ac:dyDescent="0.45">
@@ -10616,7 +10616,7 @@
         <v>272</v>
       </c>
       <c r="J218">
-        <v>3.4605776728427818E-3</v>
+        <v>3.4605776728427822E-3</v>
       </c>
     </row>
     <row r="219" spans="8:10" x14ac:dyDescent="0.45">
@@ -10638,7 +10638,7 @@
         <v>274</v>
       </c>
       <c r="J220">
-        <v>3.1745207246095836E-2</v>
+        <v>3.1745207246095829E-2</v>
       </c>
     </row>
     <row r="221" spans="8:10" x14ac:dyDescent="0.45">
@@ -10671,7 +10671,7 @@
         <v>277</v>
       </c>
       <c r="J223">
-        <v>3.5655461673611095E-3</v>
+        <v>3.5655461673611099E-3</v>
       </c>
     </row>
     <row r="224" spans="8:10" x14ac:dyDescent="0.45">
@@ -10682,7 +10682,7 @@
         <v>278</v>
       </c>
       <c r="J224">
-        <v>1.0684692424333255E-2</v>
+        <v>1.0684692424333257E-2</v>
       </c>
     </row>
     <row r="225" spans="8:10" x14ac:dyDescent="0.45">
@@ -10715,7 +10715,7 @@
         <v>281</v>
       </c>
       <c r="J227">
-        <v>1.7606437997335394E-2</v>
+        <v>1.7606437997335397E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1D057-5627-4617-A338-53324994C320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFF2855-F8A8-43DD-BD5C-854519A893C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h09,S3aH2,S3d0419h16,S3c0312h18,S3d0419h09,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S3c0312h07,S4aH5,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3d0419h10,S3d0419h13,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2b0205h10,S2b0205h18,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</t>
+    <t>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</t>
   </si>
   <si>
-    <t>S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3aH8,S3c0312h05,S3d0419h24,S2aH8,S3d0419h01,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h22,S3aH1,S3c0312h24,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S2b0205h04,S3d0419h20,S4aH8,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7</t>
+    <t>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3aH8,S3c0312h05,S3d0419h24,S2aH8,S3d0419h01,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h22,S3aH1,S3c0312h24,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S2b0205h04,S3d0419h20,S4aH8,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7</v>
+        <v>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h09,S3aH2,S3d0419h16,S3c0312h18,S3d0419h09,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S3c0312h07,S4aH5,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3d0419h10,S3d0419h13,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2b0205h10,S2b0205h18,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</v>
+        <v>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C804619-6B7E-4507-81C8-6439A9F0C6FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB33D04F-9F47-4054-9894-F65F95046271}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E960FC1A-F975-4C9A-93EB-0666A71C4BE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65859495-7434-4EC1-BA87-C02E6A1C00B3}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.86333483030730718</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>9.7812279463655616E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903387E-2</v>
+        <v>7.8719445691922768E-2</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>7.8719445691922754E-2</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210883E-2</v>
+        <v>0.8633348303073074</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD75E71-E109-4BD9-BBD8-1EE9DD0A2247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E60C06-16DB-4002-B97B-6704C7F27DE5}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFF2855-F8A8-43DD-BD5C-854519A893C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C1E5A-614F-4B33-B8A2-EDCA9985DC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</t>
+    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h07,S4aH5,S3d0419h10,S3d0419h13,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5</t>
   </si>
   <si>
-    <t>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06</t>
+    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h22,S3aH1,S3c0312h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h03,S3d0419h03,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06</v>
+        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h22,S3aH1,S3c0312h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h03,S3d0419h03,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</v>
+        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h07,S4aH5,S3d0419h10,S3d0419h13,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB33D04F-9F47-4054-9894-F65F95046271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C925F933-19B4-48CF-B8F6-047AA3875CBE}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65859495-7434-4EC1-BA87-C02E6A1C00B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2A4694-4BD4-400C-995F-042EA4DB51C9}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210897E-2</v>
+        <v>7.8719445691922768E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>7.8719445691922768E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E60C06-16DB-4002-B97B-6704C7F27DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA84E2F-FE4A-46EE-B5B5-3A885EAC2AD9}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C1E5A-614F-4B33-B8A2-EDCA9985DC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B828B6-B9CD-4DDB-9104-DD9AF910A73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h07,S4aH5,S3d0419h10,S3d0419h13,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5</t>
+    <t>S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3c0312h08,S3d0419h08,S4aH2,S2b0205h09,S3aH2,S3d0419h16,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</t>
   </si>
   <si>
-    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h22,S3aH1,S3c0312h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h03,S3d0419h03,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20</t>
+    <t>S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH8,S3c0312h19,S5aH1,S2b0205h22,S3aH1,S3c0312h24,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2aH1,S2b0205h21,S3aH7,S5aH8,S3aH8,S3c0312h05,S3d0419h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h22,S3aH1,S3c0312h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h03,S3d0419h03,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20</v>
+        <v>S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH8,S3c0312h19,S5aH1,S2b0205h22,S3aH1,S3c0312h24,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2aH1,S2b0205h21,S3aH7,S5aH8,S3aH8,S3c0312h05,S3d0419h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h07,S4aH5,S3d0419h10,S3d0419h13,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5</v>
+        <v>S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3c0312h08,S3d0419h08,S4aH2,S2b0205h09,S3aH2,S3d0419h16,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C925F933-19B4-48CF-B8F6-047AA3875CBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92D7003-57C0-47E5-ADB2-058EBE64A347}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2A4694-4BD4-400C-995F-042EA4DB51C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A542E462-0077-4EC6-8BDF-82157DE15B21}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>7.9527811637903401E-2</v>
+        <v>7.8719445691922726E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>7.8719445691922768E-2</v>
+        <v>8.0605632899210869E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210897E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3173,7 +3173,7 @@
         <v>76</v>
       </c>
       <c r="N7">
-        <v>9.781227946365563E-2</v>
+        <v>9.7812279463655574E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.8633348303073074</v>
+        <v>7.9527811637903359E-2</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA84E2F-FE4A-46EE-B5B5-3A885EAC2AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D78C1A7-5B04-4AA2-9FE8-AF4468C70D47}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B828B6-B9CD-4DDB-9104-DD9AF910A73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93D7BF4-CC64-483D-93B8-FFECC5825A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3c0312h08,S3d0419h08,S4aH2,S2b0205h09,S3aH2,S3d0419h16,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</t>
+    <t>S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</t>
   </si>
   <si>
-    <t>S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH8,S3c0312h19,S5aH1,S2b0205h22,S3aH1,S3c0312h24,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2aH1,S2b0205h21,S3aH7,S5aH8,S3aH8,S3c0312h05,S3d0419h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06</t>
+    <t>S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S3d0419h01,S2b0205h03,S3d0419h03,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH8,S3c0312h19,S5aH1,S2b0205h22,S3aH1,S3c0312h24,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2aH1,S2b0205h21,S3aH7,S5aH8,S3aH8,S3c0312h05,S3d0419h24,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06</v>
+        <v>S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3c0312h18,S3d0419h09,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3d0419h10,S3d0419h13,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3c0312h08,S3d0419h08,S4aH2,S2b0205h09,S3aH2,S3d0419h16,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4</v>
+        <v>S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92D7003-57C0-47E5-ADB2-058EBE64A347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BF1E33-B303-4725-AB58-62570B343F75}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A542E462-0077-4EC6-8BDF-82157DE15B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0C97E-29B1-4C21-916D-B9EF34123F08}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>7.8719445691922726E-2</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3103,7 +3103,7 @@
         <v>84</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210869E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.86333483030730718</v>
+        <v>7.8719445691922768E-2</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>9.7812279463655574E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903359E-2</v>
+        <v>0.8633348303073074</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D78C1A7-5B04-4AA2-9FE8-AF4468C70D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16387B1-3801-405E-8A2A-667A67B4FA1A}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93D7BF4-CC64-483D-93B8-FFECC5825A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E4882-8402-4764-8375-F1DDAAE5E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</t>
+    <t>S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</t>
   </si>
   <si>
-    <t>S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24</t>
+    <t>S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24</v>
+        <v>S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</v>
+        <v>S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BF1E33-B303-4725-AB58-62570B343F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A367BE-B303-46A4-940D-8C9B0A057AF8}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0C97E-29B1-4C21-916D-B9EF34123F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABBEF70-AF07-411D-87FD-3FACE80DF873}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>9.781227946365563E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210897E-2</v>
+        <v>0.8633348303073074</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.8633348303073074</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16387B1-3801-405E-8A2A-667A67B4FA1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6795C6-E5C1-456D-8E79-B41125961140}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E4882-8402-4764-8375-F1DDAAE5E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5A26D1-9965-45E4-8765-F49CC35466A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</t>
+    <t>S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3d0419h10,S3d0419h13,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3c0312h07,S4aH5,S3c0312h08,S3d0419h08,S4aH2</t>
   </si>
   <si>
-    <t>S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</t>
+    <t>S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S2b0205h22,S3aH1,S3c0312h24,S2b0205h03,S3d0419h03,S3d0419h02,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH1,S2b0205h21,S3aH7,S5aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</v>
+        <v>S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S2b0205h22,S3aH1,S3c0312h24,S2b0205h03,S3d0419h03,S3d0419h02,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH1,S2b0205h21,S3aH7,S5aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</v>
+        <v>S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3d0419h10,S3d0419h13,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3c0312h07,S4aH5,S3c0312h08,S3d0419h08,S4aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A367BE-B303-46A4-940D-8C9B0A057AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CA6B7B-8F29-4BFB-8412-F03165ACCB0F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABBEF70-AF07-411D-87FD-3FACE80DF873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA794C97-67E9-4A3D-B4F1-AAE871B00146}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>7.8719445691922768E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.8633348303073074</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>7.8719445691922768E-2</v>
+        <v>0.86333483030730729</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>9.781227946365563E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6795C6-E5C1-456D-8E79-B41125961140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FF61C6-9927-49AB-AF85-B5D303279844}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5A26D1-9965-45E4-8765-F49CC35466A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080C07A-4F35-4325-B3E4-47FF8DDA7AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3d0419h10,S3d0419h13,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3c0312h07,S4aH5,S3c0312h08,S3d0419h08,S4aH2</t>
+    <t>S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3</t>
   </si>
   <si>
-    <t>S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S2b0205h22,S3aH1,S3c0312h24,S2b0205h03,S3d0419h03,S3d0419h02,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH1,S2b0205h21,S3aH7,S5aH8</t>
+    <t>S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h02,S3c0312h06,S2b0205h22,S3aH1,S3c0312h24,S3aH8,S3c0312h05,S3d0419h24,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S2b0205h22,S3aH1,S3c0312h24,S2b0205h03,S3d0419h03,S3d0419h02,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2aH1,S2b0205h21,S3aH7,S5aH8</v>
+        <v>S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h02,S3c0312h06,S2b0205h22,S3aH1,S3c0312h24,S3aH8,S3c0312h05,S3d0419h24,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3d0419h10,S3d0419h13,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3c0312h07,S4aH5,S3c0312h08,S3d0419h08,S4aH2</v>
+        <v>S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CA6B7B-8F29-4BFB-8412-F03165ACCB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DE4AFD-B407-4B82-A2E4-412B90479321}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA794C97-67E9-4A3D-B4F1-AAE871B00146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A66E7-4331-4097-BB92-A8D83BE87796}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>7.8719445691922768E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210897E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.86333483030730729</v>
+        <v>9.7812279463655616E-2</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>9.781227946365563E-2</v>
+        <v>7.8719445691922754E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903401E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FF61C6-9927-49AB-AF85-B5D303279844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB7549F-E9B7-42E6-B744-EE7839261A81}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080C07A-4F35-4325-B3E4-47FF8DDA7AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631CF81-DB8E-4D1C-A415-6B708FFB5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3</t>
+    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h18,S3d0419h09,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5</t>
   </si>
   <si>
-    <t>S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h02,S3c0312h06,S2b0205h22,S3aH1,S3c0312h24,S3aH8,S3c0312h05,S3d0419h24,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1</t>
+    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1,S2aH8,S3d0419h01,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h22,S3aH1,S3c0312h24,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0205h03,S3d0419h03,S2aH8,S3d0419h01,S2b0205h04,S3d0419h20,S4aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h02,S3c0312h06,S2b0205h22,S3aH1,S3c0312h24,S3aH8,S3c0312h05,S3d0419h24,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1</v>
+        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1,S2aH8,S3d0419h01,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h22,S3aH1,S3c0312h24,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h18,S3d0419h09,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S2b0205h09,S3aH2,S3d0419h16,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3</v>
+        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h18,S3d0419h09,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DE4AFD-B407-4B82-A2E4-412B90479321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9586D198-5E31-4E99-AD7A-5E4E14C48AE5}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A66E7-4331-4097-BB92-A8D83BE87796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC97662-9CA3-4B3A-A7CA-A9DBBC6E8CCA}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>7.8719445691922754E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.86333483030730718</v>
+        <v>7.8719445691922754E-2</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB7549F-E9B7-42E6-B744-EE7839261A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2E004-3AEF-4EE8-8FDD-6A4DE7B8BD28}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631CF81-DB8E-4D1C-A415-6B708FFB5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A6882E-94B7-4775-B709-84A0B6A60A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h18,S3d0419h09,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5</t>
+    <t>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3d0419h10,S3d0419h13,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</t>
   </si>
   <si>
-    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1,S2aH8,S3d0419h01,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h22,S3aH1,S3c0312h24,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21</t>
+    <t>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h22,S3aH1,S3c0312h24,S1aH8,S3c0312h19,S5aH1,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1,S2aH8,S3d0419h01,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h22,S3aH1,S3c0312h24,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21</v>
+        <v>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h22,S3aH1,S3c0312h24,S1aH8,S3c0312h19,S5aH1,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h18,S3d0419h09,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h08,S3d0419h08,S4aH2,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5</v>
+        <v>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3d0419h10,S3d0419h13,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9586D198-5E31-4E99-AD7A-5E4E14C48AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237DA9B3-512A-4422-BD88-429F7541809A}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC97662-9CA3-4B3A-A7CA-A9DBBC6E8CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566E681-3CFB-43A8-980C-995F6CB9BB2C}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.86333483030730718</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>7.8719445691922768E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>9.7812279463655616E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.8719445691922754E-2</v>
+        <v>0.8633348303073074</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2E004-3AEF-4EE8-8FDD-6A4DE7B8BD28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1F0F15-2BA7-41BB-BB1C-7A588C01FCE9}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A6882E-94B7-4775-B709-84A0B6A60A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE538E37-6CE1-4FE2-9E47-5E70C55BDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3d0419h10,S3d0419h13,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</t>
+    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h10,S2b0205h18,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</t>
   </si>
   <si>
-    <t>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h22,S3aH1,S3c0312h24,S1aH8,S3c0312h19,S5aH1,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01</t>
+    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h22,S3aH1,S3c0312h24,S1aH8,S3c0312h19,S5aH1,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2aH1,S2b0205h21,S3aH7,S5aH8,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h03,S3d0419h03,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S3c0312h01,S3c0312h23,S3d0419h21,S2aH8,S3d0419h01</v>
+        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3d0419h10,S3d0419h13,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h07,S4aH5,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</v>
+        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h10,S2b0205h18,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237DA9B3-512A-4422-BD88-429F7541809A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE8E459-1D46-49B2-8B70-5888CC98B66B}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566E681-3CFB-43A8-980C-995F6CB9BB2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27D1FB-3346-41B1-B859-F380159CA14A}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>7.9527811637903401E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>7.8719445691922768E-2</v>
+        <v>0.8633348303073074</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210897E-2</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>9.781227946365563E-2</v>
+        <v>7.8719445691922768E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.8633348303073074</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1F0F15-2BA7-41BB-BB1C-7A588C01FCE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B09739-D6B5-4E0B-868D-70050D19184E}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE538E37-6CE1-4FE2-9E47-5E70C55BDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D93D5E-B709-415D-9698-1617ADA42447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h10,S2b0205h18,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</t>
+    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h10,S2b0205h18,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</t>
   </si>
   <si>
-    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</t>
+    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h02,S3c0312h06,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2b0205h04,S3d0419h20,S4aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h03,S3d0419h03,S2b0205h02,S3c0312h06,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h04,S3d0419h20,S4aH8,S3aH8,S3c0312h05,S3d0419h24,S1aH8,S3c0312h19,S5aH1,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2aH8,S3d0419h01,S3c0312h01,S3c0312h23,S3d0419h21,S3d0419h02,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24</v>
+        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h02,S3c0312h06,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2b0205h04,S3d0419h20,S4aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3c0312h08,S3d0419h08,S4aH2,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h10,S2b0205h18,S2b0205h09,S3aH2,S3d0419h16,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h18,S3d0419h09,S3c0312h07,S4aH5,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S3aH3,S3c0312h10,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13</v>
+        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h10,S2b0205h18,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE8E459-1D46-49B2-8B70-5888CC98B66B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C7D46B-144F-4A56-8A1E-A9E8E017F8F4}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27D1FB-3346-41B1-B859-F380159CA14A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEE888-9690-4CCF-8BC6-9E6670972198}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.8633348303073074</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>9.781227946365563E-2</v>
+        <v>0.8633348303073074</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B09739-D6B5-4E0B-868D-70050D19184E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74F2948-AEB7-4CD9-AD51-E2C981733146}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D93D5E-B709-415D-9698-1617ADA42447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C417A9-D30C-482A-8568-B49922EC1572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h10,S2b0205h18,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</t>
+    <t>S3c0312h18,S3d0419h09,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h08,S3d0419h08,S4aH2,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</t>
   </si>
   <si>
-    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h02,S3c0312h06,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2b0205h04,S3d0419h20,S4aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03</t>
+    <t>S2aH8,S3d0419h01,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h02,S3c0312h06,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S3aH8,S3c0312h05,S3d0419h24,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S2b0205h22,S3aH1,S3c0312h24,S2b0205h04,S3d0419h20,S4aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2aH8,S3d0419h01,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03</v>
+        <v>S2aH8,S3d0419h01,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h09,S3aH2,S3d0419h16,S3d0419h10,S3d0419h13,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h10,S2b0205h18,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3c0312h18,S3d0419h09,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</v>
+        <v>S3c0312h18,S3d0419h09,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h07,S4aH5,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h08,S3d0419h08,S4aH2,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C7D46B-144F-4A56-8A1E-A9E8E017F8F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AB0A62-278B-437B-8E33-1C0AFCD89119}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEE888-9690-4CCF-8BC6-9E6670972198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A7B127-97D8-44F1-8149-42B716B27C6C}">
   <dimension ref="B2:O2915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,10 +3065,10 @@
         <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>9.7812279463655616E-2</v>
       </c>
       <c r="O4" t="s">
         <v>344</v>
@@ -3100,10 +3100,10 @@
         <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>9.781227946365563E-2</v>
+        <v>7.8719445691922754E-2</v>
       </c>
       <c r="O5" t="s">
         <v>344</v>
@@ -3135,10 +3135,10 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.8633348303073074</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>344</v>
@@ -3170,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>7.8719445691922768E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>344</v>
@@ -3205,10 +3205,10 @@
         <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903401E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O8" t="s">
         <v>344</v>
@@ -78802,7 +78802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74F2948-AEB7-4CD9-AD51-E2C981733146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849F356A-6584-402F-A8E7-E368F3C422C3}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F791E3-C3EF-4A12-9C11-69ECD91E49AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB405258-7279-48E5-ADB5-0EE1897736F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH6,S2c0415h12</t>
+    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</t>
   </si>
   <si>
-    <t>S1b0205h03,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h23,S6aH8</t>
+    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h03,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h03,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h23,S6aH8</v>
+        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h03,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH6,S2c0415h12</v>
+        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A81B528-6209-4AB8-A498-5EE77BDDB39B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30530FF2-74B2-48CD-8902-11E1D2C66D8F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50320094-2F1C-4D6A-B66F-A66635DBCDF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3BE3B5-E92D-425F-B74E-9A8290C19E40}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3092,7 +3092,7 @@
         <v>84</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.40660807082825434</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210897E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3197,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557838</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829668</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903401E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BF4BAF-C9F3-4545-86B2-03D0E637AB27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355FA66E-9DD0-4E22-8161-FD183C3761AE}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB405258-7279-48E5-ADB5-0EE1897736F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC4C7B-92CD-4A56-B06B-11EF07206ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</t>
+    <t>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</t>
   </si>
   <si>
-    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h03,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</t>
+    <t>S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h03,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</v>
+        <v>S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</v>
+        <v>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30530FF2-74B2-48CD-8902-11E1D2C66D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AC18CB-19D2-46E6-8A59-AB110603E475}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3BE3B5-E92D-425F-B74E-9A8290C19E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700EB396-B747-4C0C-82D5-1E86A2AC23F6}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829657</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903387E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355FA66E-9DD0-4E22-8161-FD183C3761AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758194C-02F4-4028-9247-658C930AC143}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC4C7B-92CD-4A56-B06B-11EF07206ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89798421-9B26-4D38-89F8-2055B72C875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</t>
+    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH6,S2c0415h12</t>
   </si>
   <si>
-    <t>S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</t>
+    <t>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h05,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</v>
+        <v>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</v>
+        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH6,S2c0415h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AC18CB-19D2-46E6-8A59-AB110603E475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6120CF4-0B43-4C09-B8FD-C57EF98BF46E}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700EB396-B747-4C0C-82D5-1E86A2AC23F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C77BEB-FC81-4152-BC32-09063E2EBEC3}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557836</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210883E-2</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758194C-02F4-4028-9247-658C930AC143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B781B-6EE4-41CE-A09B-76D737AB4D06}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89798421-9B26-4D38-89F8-2055B72C875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1413FD-E91C-468D-B622-DD323868CE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH6,S2c0415h12</t>
+    <t>S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12</t>
   </si>
   <si>
-    <t>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h23,S6aH8</t>
+    <t>S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h23,S6aH8</v>
+        <v>S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH6,S2c0415h12</v>
+        <v>S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6120CF4-0B43-4C09-B8FD-C57EF98BF46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC0D05-D431-40F5-BF1F-D023723D1E2F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C77BEB-FC81-4152-BC32-09063E2EBEC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A33501-44B6-4119-B09F-2EA950EE8F2A}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557838</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.40660807082825434</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210897E-2</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829668</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903401E-2</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B781B-6EE4-41CE-A09B-76D737AB4D06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C5A34-B101-42C9-A6F5-D7E59DAB637F}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1413FD-E91C-468D-B622-DD323868CE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83129F22-2673-453F-9E13-1172D119AFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12</t>
+    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</t>
   </si>
   <si>
-    <t>S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8</t>
+    <t>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8</v>
+        <v>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12</v>
+        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC0D05-D431-40F5-BF1F-D023723D1E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010F425-A789-4C01-B555-DCF13C9C16F1}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A33501-44B6-4119-B09F-2EA950EE8F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6530D777-1A60-4770-B9D1-D889911A22FE}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3092,7 +3092,7 @@
         <v>87</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3127,7 +3127,7 @@
         <v>89</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903401E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3162,7 +3162,7 @@
         <v>84</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.26179508564829668</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825434</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557838</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C5A34-B101-42C9-A6F5-D7E59DAB637F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BF39C1-C6EB-49FB-BF1D-16D65A8F1C81}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83129F22-2673-453F-9E13-1172D119AFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2F7D3D-1473-47C8-ADBF-E2D22C787F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</t>
+    <t>S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h17,S2d0427h11,S6aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2</t>
   </si>
   <si>
-    <t>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</t>
+    <t>S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S1b0205h03,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</v>
+        <v>S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S1b0205h03,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</v>
+        <v>S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h17,S2d0427h11,S6aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010F425-A789-4C01-B555-DCF13C9C16F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3833F0F-2B71-4D32-8741-FE2F29016242}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6530D777-1A60-4770-B9D1-D889911A22FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19767C42-D548-46FC-8D42-386CB2D10850}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829657</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BF39C1-C6EB-49FB-BF1D-16D65A8F1C81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8081E9-57A5-466B-B4AF-F5DEB5A21061}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1199CB2-3A73-42EE-A25F-D067A99145F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488ED0A8-E148-4DFE-89EC-C49F3C6A7BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h17,S2d0427h11,S6aH7</t>
+    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</t>
   </si>
   <si>
-    <t>S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
+    <t>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
+        <v>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h17,S2d0427h11,S6aH7</v>
+        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A446CF0-5275-468D-8232-F85F919349F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D86755-5831-4568-88F7-EEE5309E6C0C}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E836408F-B44C-42C7-B9D9-EAA3C8EB16CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13F5FD3-5FF7-474E-B01B-55987E2C3328}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3092,7 +3092,7 @@
         <v>87</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.40660807082825434</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903401E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3197,7 +3197,7 @@
         <v>84</v>
       </c>
       <c r="N7">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829668</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557838</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA4DAE8-F29D-4EFB-852B-B2B4D33A374B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B2543F-6BA7-4D18-9317-0DE8A40CBF22}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488ED0A8-E148-4DFE-89EC-C49F3C6A7BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C80515-92FE-43B6-8A85-3C87122D39A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</t>
+    <t>S1aH3,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
   </si>
   <si>
-    <t>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19</t>
+    <t>S1b0205h05,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19</v>
+        <v>S1b0205h05,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</v>
+        <v>S1aH3,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D86755-5831-4568-88F7-EEE5309E6C0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78127EB6-D433-4040-95ED-BD77EC4A400D}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13F5FD3-5FF7-474E-B01B-55987E2C3328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F0139-78EE-4C84-AFFF-7BAF6EB428AB}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557836</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.19493167383075638</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825434</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903387E-2</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B2543F-6BA7-4D18-9317-0DE8A40CBF22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ECCF11-A4E2-4509-91DE-63F5D167F4D9}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C80515-92FE-43B6-8A85-3C87122D39A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9FBC71-C030-4B56-8C5C-D48FE7315DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
+    <t>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</t>
   </si>
   <si>
-    <t>S1b0205h05,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h03</t>
+    <t>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h05,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h03</v>
+        <v>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
+        <v>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78127EB6-D433-4040-95ED-BD77EC4A400D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AC7FFD-118D-4C3F-A000-0DDB6AF653AA}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F0139-78EE-4C84-AFFF-7BAF6EB428AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DC0427-5F4E-4D93-A308-E47B37C598B2}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829668</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557838</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210897E-2</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ECCF11-A4E2-4509-91DE-63F5D167F4D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40B7D48-7456-44C1-852E-0A1586BB5A73}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9FBC71-C030-4B56-8C5C-D48FE7315DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A145797-DAF0-4D6D-9835-28793B9044EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</t>
+    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7</t>
   </si>
   <si>
-    <t>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</t>
+    <t>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH1,S1b0205h04,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</v>
+        <v>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2c0415h07,S2c0415h13,S2c0415h15,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</v>
+        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AC7FFD-118D-4C3F-A000-0DDB6AF653AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6B28A8-00F8-4B11-86CF-B6A0CC5D0228}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DC0427-5F4E-4D93-A308-E47B37C598B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7720FD-F9BA-4CB1-A8A2-0776AD0DE9B1}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557838</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210897E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829668</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3197,7 +3197,7 @@
         <v>89</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.19493167383075641</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3267,7 +3267,7 @@
         <v>80</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825434</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40B7D48-7456-44C1-852E-0A1586BB5A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD42AA3-D733-4B96-AE2B-2BC94CED2EDB}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A145797-DAF0-4D6D-9835-28793B9044EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3902F7A-21D2-4526-A7E0-0E9465CECFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7</t>
+    <t>S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
   </si>
   <si>
-    <t>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
+    <t>S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
+        <v>S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7</v>
+        <v>S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6B28A8-00F8-4B11-86CF-B6A0CC5D0228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C997A-8543-4341-A862-AC7926E61BD4}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7720FD-F9BA-4CB1-A8A2-0776AD0DE9B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7568E128-575E-4607-A5A6-B517AB942794}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557836</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210883E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829657</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD42AA3-D733-4B96-AE2B-2BC94CED2EDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B3E98-3FFF-4199-9671-A0E90C7F9040}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3902F7A-21D2-4526-A7E0-0E9465CECFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E59523-3A00-42BE-9CF6-CBF341690779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
+    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</t>
   </si>
   <si>
-    <t>S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03</t>
+    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h20,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03</v>
+        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
+        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C997A-8543-4341-A862-AC7926E61BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F686053-E29F-4BEB-8FF9-A6892FBF8097}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7568E128-575E-4607-A5A6-B517AB942794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FB3113-D11C-4FA8-A458-1C70013173A3}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829657</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.40660807082825429</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903387E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B3E98-3FFF-4199-9671-A0E90C7F9040}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1DBB5B-BF26-41E5-A7BE-B04D73E4ACB2}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E59523-3A00-42BE-9CF6-CBF341690779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8B8A38-C5EB-47BB-8748-DF3C20F365C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</t>
+    <t>S3aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</t>
   </si>
   <si>
-    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19</t>
+    <t>S3aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2aH8,S2d0427h20,S1b0205h03,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h02,S2d0427h01,S2d0427h19</v>
+        <v>S3aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2aH8,S2d0427h20,S1b0205h03,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</v>
+        <v>S3aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F686053-E29F-4BEB-8FF9-A6892FBF8097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113BFB17-B167-4469-BD11-F3D8AF1908CC}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FB3113-D11C-4FA8-A458-1C70013173A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A54AEBA-EC2F-4CD1-9FC6-F27FB8D586B1}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557836</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>0.40660807082825429</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3197,7 +3197,7 @@
         <v>89</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>8.0605632899210883E-2</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1DBB5B-BF26-41E5-A7BE-B04D73E4ACB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD1927-3284-4EA1-80DC-2A8ECED76843}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8B8A38-C5EB-47BB-8748-DF3C20F365C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD37BE79-B87B-4E46-B3CA-AEF418D5924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</t>
+    <t>S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH6,S2c0415h12</t>
   </si>
   <si>
-    <t>S3aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2aH8,S2d0427h20,S1b0205h03,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19</t>
+    <t>S1b0205h05,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2c0415h21,S4aH8,S2c0415h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2aH8,S2d0427h20,S1b0205h03,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19</v>
+        <v>S1b0205h05,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2c0415h21,S4aH8,S2c0415h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4</v>
+        <v>S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH6,S2c0415h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113BFB17-B167-4469-BD11-F3D8AF1908CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D2704-5FAD-4CE9-8284-1C55D0BD7654}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A54AEBA-EC2F-4CD1-9FC6-F27FB8D586B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4A14C-DB97-41E7-8F6F-27B95EC3797E}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3092,7 +3092,7 @@
         <v>84</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829668</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210897E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557838</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825434</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD1927-3284-4EA1-80DC-2A8ECED76843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41FF5EE-5357-44CA-88F7-4077694E6D77}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD37BE79-B87B-4E46-B3CA-AEF418D5924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CEFB40-F553-4557-8613-8810868E643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH6,S2c0415h12</t>
+    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</t>
   </si>
   <si>
-    <t>S1b0205h05,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2c0415h21,S4aH8,S2c0415h23,S6aH8</t>
+    <t>S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h05,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S2c0415h21,S4aH8,S2c0415h23,S6aH8</v>
+        <v>S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH6,S2c0415h12</v>
+        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D2704-5FAD-4CE9-8284-1C55D0BD7654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C406017-62FC-42C0-8F2F-796DD9808CD7}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4A14C-DB97-41E7-8F6F-27B95EC3797E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E2287A-0D9D-4BD3-8ED2-617F2FAF49B6}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3092,7 +3092,7 @@
         <v>84</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3127,7 +3127,7 @@
         <v>87</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3162,7 +3162,7 @@
         <v>82</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829657</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3197,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3232,7 +3232,7 @@
         <v>80</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825429</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3267,7 +3267,7 @@
         <v>89</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903387E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41FF5EE-5357-44CA-88F7-4077694E6D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F6ED1-C3FB-4074-AEA7-4A47A81CB26A}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CEFB40-F553-4557-8613-8810868E643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF28B15-7A1C-4094-BBA6-E00258D09235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</t>
+    <t>S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15</t>
   </si>
   <si>
-    <t>S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
+    <t>S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h05,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
+        <v>S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h05,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</v>
+        <v>S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C406017-62FC-42C0-8F2F-796DD9808CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A40664-E831-4871-8B00-9309A9B30EFE}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E2287A-0D9D-4BD3-8ED2-617F2FAF49B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDD4FAB-0585-484F-B9D3-7B822FAC81F7}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210897E-2</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829668</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557838</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825434</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F6ED1-C3FB-4074-AEA7-4A47A81CB26A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1528070B-C33F-4769-AE00-77EDB47CC03C}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF28B15-7A1C-4094-BBA6-E00258D09235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E69CC-9D57-429D-BB03-3B0BDCC5C585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15</t>
+    <t>S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S3aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7</t>
   </si>
   <si>
-    <t>S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h05,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04</t>
+    <t>S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h03,S2c0415h21,S4aH8,S3aH8,S2aH8,S2d0427h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1b0205h05,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S1b0205h03,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04</v>
+        <v>S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h03,S2c0415h21,S4aH8,S3aH8,S2aH8,S2d0427h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15</v>
+        <v>S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S3aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A40664-E831-4871-8B00-9309A9B30EFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B542B20B-4172-4A8B-8C55-43CEF2B100BC}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDD4FAB-0585-484F-B9D3-7B822FAC81F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D54352-B5FB-4480-A3FF-EE19037F3921}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.40660807082825434</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210897E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829668</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903401E-2</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1528070B-C33F-4769-AE00-77EDB47CC03C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A1BCA-F71B-4A2C-9C87-FD7F62AB9000}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E69CC-9D57-429D-BB03-3B0BDCC5C585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF91B6-EBD6-4271-B910-0BE6DDF9F680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S3aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7</t>
+    <t>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3</t>
   </si>
   <si>
-    <t>S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h03,S2c0415h21,S4aH8,S3aH8,S2aH8,S2d0427h20</t>
+    <t>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h20,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h03,S2c0415h21,S4aH8,S3aH8,S2aH8,S2d0427h20</v>
+        <v>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h20,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h17,S2d0427h11,S6aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S3aH2,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7</v>
+        <v>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B542B20B-4172-4A8B-8C55-43CEF2B100BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8DC0E2-92C1-4942-9B4E-91820882F9F6}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D54352-B5FB-4480-A3FF-EE19037F3921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070D2BB0-E84A-4E93-A694-9605E340D064}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557838</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3162,7 +3162,7 @@
         <v>82</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829668</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3232,7 +3232,7 @@
         <v>87</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210897E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3267,7 +3267,7 @@
         <v>80</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825434</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A1BCA-F71B-4A2C-9C87-FD7F62AB9000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8093CBB6-EB59-402A-B67F-6C7E776D8C5A}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF91B6-EBD6-4271-B910-0BE6DDF9F680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F685047-CA0E-426A-88A0-E72C7B7BBC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3</t>
+    <t>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12</t>
   </si>
   <si>
-    <t>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h20,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24</t>
+    <t>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S3aH8,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S2c0415h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h20,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24</v>
+        <v>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S3aH8,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S2c0415h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h17,S2d0427h11,S6aH7,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3</v>
+        <v>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8DC0E2-92C1-4942-9B4E-91820882F9F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F387023-0C8F-4896-8911-11FC9AB15C64}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070D2BB0-E84A-4E93-A694-9605E340D064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B8918E-CAD0-49AD-94B9-DB9A582FC23A}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>7.9527811637903387E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8093CBB6-EB59-402A-B67F-6C7E776D8C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C5A6C-2CF8-4B7F-B697-3AD5583F2D5E}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F685047-CA0E-426A-88A0-E72C7B7BBC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A17EE1-69F1-445E-A948-440354EF55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12</t>
+    <t>S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
   </si>
   <si>
-    <t>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S3aH8,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S2c0415h23,S6aH8</t>
+    <t>S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S3aH8,S1b0205h03,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2aH8,S2d0427h20,S2c0415h23,S6aH8</v>
+        <v>S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12</v>
+        <v>S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F387023-0C8F-4896-8911-11FC9AB15C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A78C59-1083-4E81-AF90-0CF2D9B19AD7}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B8918E-CAD0-49AD-94B9-DB9A582FC23A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A05DA6-A06C-4AF3-BED2-50AA3785358E}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3092,7 +3092,7 @@
         <v>84</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3127,7 +3127,7 @@
         <v>82</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829657</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3162,7 +3162,7 @@
         <v>76</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557836</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.40660807082825429</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210883E-2</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C5A6C-2CF8-4B7F-B697-3AD5583F2D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9609904E-ADE3-4830-A775-3B0E0030DABD}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A17EE1-69F1-445E-A948-440354EF55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC07DEB-14DC-48DE-A81F-4808483D1C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
+    <t>S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH6,S2c0415h12,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6</t>
   </si>
   <si>
-    <t>S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03</t>
+    <t>S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h23,S6aH8,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h03,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S3aH8,S2c0415h21,S4aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2aH8,S2d0427h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03</v>
+        <v>S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h23,S6aH8,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h03,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S3aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
+        <v>S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH6,S2c0415h12,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A78C59-1083-4E81-AF90-0CF2D9B19AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2D8470-BAFA-4DBB-A091-EE4B5FB6B17B}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A05DA6-A06C-4AF3-BED2-50AA3785358E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD03329-ED71-4ED4-87BA-AEAE3BBB5F79}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829668</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557838</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825434</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>8.0605632899210897E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9609904E-ADE3-4830-A775-3B0E0030DABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA9468B-E5CB-4D2E-9E4B-15EB4C1C1294}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC07DEB-14DC-48DE-A81F-4808483D1C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C979DCB-9057-4A40-99FE-C1F7DCFCC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH6,S2c0415h12,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6</t>
+    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6</t>
   </si>
   <si>
-    <t>S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h23,S6aH8,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h03,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22</t>
+    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h03,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S2c0415h23,S6aH8,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h03,S2c0415h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22</v>
+        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h03,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S1aH6,S2c0415h12,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6</v>
+        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2D8470-BAFA-4DBB-A091-EE4B5FB6B17B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B484B57-C4D5-4C0F-BEAF-2572DC729E3D}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD03329-ED71-4ED4-87BA-AEAE3BBB5F79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9A8AC-4020-440B-87F1-093F48F27E0F}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.40660807082825434</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075641</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557838</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829668</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903401E-2</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA9468B-E5CB-4D2E-9E4B-15EB4C1C1294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBC1CA6-47C7-4461-9AF4-E899C23A3C2C}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C979DCB-9057-4A40-99FE-C1F7DCFCC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B0DAE-3462-4110-8CA9-24C3FD1DBDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6</t>
+    <t>S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</t>
   </si>
   <si>
-    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h03,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</t>
+    <t>S1b0205h05,S2aH8,S2d0427h20,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S2c0415h20,S3aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S2aH8,S2d0427h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h23,S6aH8,S1aH1,S1b0205h04,S1b0205h03,S2c0415h21,S4aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</v>
+        <v>S1b0205h05,S2aH8,S2d0427h20,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S2c0415h20,S3aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH6,S2c0415h12,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S1aH4,S2aH2,S2d0427h15,S4aH6</v>
+        <v>S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B484B57-C4D5-4C0F-BEAF-2572DC729E3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD872A-6B1A-4D4B-9651-CA48E02854ED}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9A8AC-4020-440B-87F1-093F48F27E0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FFC23B-43AB-4808-A4F1-5A5FAEA61654}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.40660807082825434</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557838</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829668</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210897E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903401E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.19493167383075641</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBC1CA6-47C7-4461-9AF4-E899C23A3C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1608994D-F395-4F3C-B5B6-C93DFB0180C8}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B0DAE-3462-4110-8CA9-24C3FD1DBDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AC430F-25B5-4130-BA44-F070E5F1BA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</t>
+    <t>S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6</t>
   </si>
   <si>
-    <t>S1b0205h05,S2aH8,S2d0427h20,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S2c0415h20,S3aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</t>
+    <t>S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h05,S2aH8,S2d0427h20,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1aH1,S1b0205h04,S2c0415h20,S3aH8,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8</v>
+        <v>S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S3aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5</v>
+        <v>S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD872A-6B1A-4D4B-9651-CA48E02854ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FC3F73-487B-4541-AEEC-20FA9CF77D54}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FFC23B-43AB-4808-A4F1-5A5FAEA61654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35A3E2D-8A3E-4112-8941-159AA80E3A30}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.26179508564829657</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557836</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3197,7 +3197,7 @@
         <v>89</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210883E-2</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1608994D-F395-4F3C-B5B6-C93DFB0180C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F77E91-9EA8-4DB3-8874-FB6D8F7C26D2}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AC430F-25B5-4130-BA44-F070E5F1BA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7655C-4477-4709-8E24-53164138C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6</t>
+    <t>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
   </si>
   <si>
-    <t>S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</t>
+    <t>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h05,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1</v>
+        <v>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6</v>
+        <v>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FC3F73-487B-4541-AEEC-20FA9CF77D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D58FD6D-DC59-4955-8FBA-2A16D626AEE2}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35A3E2D-8A3E-4112-8941-159AA80E3A30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDBA390-1006-4D6B-AE2F-FEE41E351919}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3092,7 +3092,7 @@
         <v>84</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829668</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3162,7 +3162,7 @@
         <v>80</v>
       </c>
       <c r="N6">
-        <v>0.40660807082825434</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3197,7 +3197,7 @@
         <v>89</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557838</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>8.0605632899210897E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F77E91-9EA8-4DB3-8874-FB6D8F7C26D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D39682-4C31-4BAB-AC11-CDCE35D98B31}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7655C-4477-4709-8E24-53164138C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357C917-0354-4D02-9990-8C21644114AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</t>
+    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7</t>
   </si>
   <si>
-    <t>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h03</t>
+    <t>S2aH8,S2d0427h20,S3aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h21,S4aH8,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S2c0415h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S3aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S2c0415h21,S4aH8,S2aH8,S2d0427h20,S1b0205h03</v>
+        <v>S2aH8,S2d0427h20,S3aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h21,S4aH8,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S2c0415h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S3aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4</v>
+        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D58FD6D-DC59-4955-8FBA-2A16D626AEE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C653B-6610-4EEB-8B46-C0A62842820E}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDBA390-1006-4D6B-AE2F-FEE41E351919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13625A17-9885-4A6C-88D8-1024D7C55FD9}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.40660807082825429</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557836</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D39682-4C31-4BAB-AC11-CDCE35D98B31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACEB620-1642-49B7-9398-CDA915C0AE30}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357C917-0354-4D02-9990-8C21644114AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF33D44-ABBD-4F80-AB5F-E59FD6AC7D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7</t>
+    <t>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3</t>
   </si>
   <si>
-    <t>S2aH8,S2d0427h20,S3aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h21,S4aH8,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S2c0415h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
+    <t>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S1b0205h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2d0427h20,S3aH8,S1b0205h03,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h21,S4aH8,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h23,S6aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S2c0415h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
+        <v>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S1b0205h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S3aH2,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1aH6,S2c0415h12,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h17,S2d0427h11,S6aH7</v>
+        <v>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C653B-6610-4EEB-8B46-C0A62842820E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA37340-A995-4BF6-A34B-16689772F6FD}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13625A17-9885-4A6C-88D8-1024D7C55FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D6814B-D2C8-4D45-BA1B-949FF40DE316}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903387E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.19493167383075638</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825434</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACEB620-1642-49B7-9398-CDA915C0AE30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD2F2F3-509A-4EC8-91C6-BE16020DCE18}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF33D44-ABBD-4F80-AB5F-E59FD6AC7D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB15665-5023-42FC-BC83-42AA86FA8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3</t>
+    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</t>
   </si>
   <si>
-    <t>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S1b0205h05</t>
+    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h03,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1aH1,S1b0205h04,S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S2aH8,S2d0427h20,S2c0415h23,S6aH8,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h03,S1b0205h05</v>
+        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h03,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h05,S1aH1,S1b0205h04,S2c0415h23,S6aH8,S2aH8,S2d0427h20,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h20,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S3aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH3</v>
+        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH3,S2c0415h07,S2c0415h13,S2c0415h15,S1aH6,S2c0415h12,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S2c0415h17,S2d0427h11,S6aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h13,S2d0427h13,S4aH5,S3aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA37340-A995-4BF6-A34B-16689772F6FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E9943A-4129-4C85-9EFC-5B8FED601528}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D6814B-D2C8-4D45-BA1B-949FF40DE316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2E72D2-46CD-4A37-9019-ECB9BF36F4B2}">
   <dimension ref="B2:O3123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3089,10 +3089,10 @@
         <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>351</v>
@@ -3124,10 +3124,10 @@
         <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N5">
-        <v>0.19493167383075638</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O5" t="s">
         <v>351</v>
@@ -3159,10 +3159,10 @@
         <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829657</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O6" t="s">
         <v>351</v>
@@ -3194,10 +3194,10 @@
         <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.40660807082825429</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>351</v>
@@ -3229,10 +3229,10 @@
         <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210883E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -3264,10 +3264,10 @@
         <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903387E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O9" t="s">
         <v>351</v>
@@ -81363,7 +81363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD2F2F3-509A-4EC8-91C6-BE16020DCE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DD792D-DD03-4D2E-98AB-785B45B0D2AC}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755AEB3A-8F8C-4DB3-AC4F-833AE44DA75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA3EA3-02F6-4999-B52D-F464F608ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3c0421h08,S4aH5,S4d1023h08,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h09,S3c0421h11,S4d1023h09,S4d1023h18,S6aH5,S1b0130h14,S1b0130h16,S3aH3,S1b0130h08,S4d1023h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1aH4,S3c0421h18,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1aH3,S3c0421h13,S1b0130h17,S4d1023h10,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4</t>
-  </si>
-  <si>
-    <t>S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S4aH8,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h23,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S4d1023h03</t>
+    <t>S1b0130h08,S4d1023h07,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH4,S3c0421h18,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h08,S4aH5,S4d1023h08,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
+  </si>
+  <si>
+    <t>S1b0130h23,S3aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S3c0421h19,S4aH1,S6aH1,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S4aH8,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h23,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S4d1023h03</v>
+        <v>S1b0130h23,S3aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S3c0421h19,S4aH1,S6aH1,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3c0421h08,S4aH5,S4d1023h08,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h09,S3c0421h11,S4d1023h09,S4d1023h18,S6aH5,S1b0130h14,S1b0130h16,S3aH3,S1b0130h08,S4d1023h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1aH4,S3c0421h18,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1aH3,S3c0421h13,S1b0130h17,S4d1023h10,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4</v>
+        <v>S1b0130h08,S4d1023h07,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH4,S3c0421h18,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h08,S4aH5,S4d1023h08,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD2BC86-4DBF-4C97-9577-6CA3206A563C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9BA927-70A8-4B10-B758-365AFD80DFED}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482EF7E3-D55C-453A-9D27-A7467F0BEF25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EBB4E1-7F91-4B51-B7F4-5F8810F6C4D5}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2946,7 +2946,7 @@
         <v>83</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.5883749278244691</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210897E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557838</v>
+        <v>8.0028228652081854E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N9">
-        <v>8.0028228652081868E-2</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E9D237-4FF4-4166-B63A-EF1E1036F074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAE258D-D6D7-43EA-AF1F-FF9AF22B30B2}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA3EA3-02F6-4999-B52D-F464F608ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D11CB-6608-4754-88E4-760E36E3D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h08,S4d1023h07,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH4,S3c0421h18,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h08,S4aH5,S4d1023h08,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
-  </si>
-  <si>
-    <t>S1b0130h23,S3aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S3c0421h19,S4aH1,S6aH1,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
+    <t>S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h08,S4d1023h07,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h09,S3c0421h11,S4d1023h09,S1aH3,S3c0421h13,S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S3c0421h08,S4aH5,S4d1023h08,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17</t>
+  </si>
+  <si>
+    <t>S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h23,S3aH8,S4d1023h03,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h23,S3aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S3c0421h19,S4aH1,S6aH1,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
+        <v>S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h23,S3aH8,S4d1023h03,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h08,S4d1023h07,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH4,S3c0421h18,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h08,S4aH5,S4d1023h08,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
+        <v>S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h08,S4d1023h07,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h09,S3c0421h11,S4d1023h09,S1aH3,S3c0421h13,S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S3c0421h08,S4aH5,S4d1023h08,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9BA927-70A8-4B10-B758-365AFD80DFED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A646FD2F-48EA-455E-BC13-E040BABE74CB}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EBB4E1-7F91-4B51-B7F4-5F8810F6C4D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D0D4FC-C0F1-434E-B696-6DD080BFADC3}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557836</v>
+        <v>8.0028228652081868E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903387E-2</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210883E-2</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>8.0028228652081854E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N9">
-        <v>0.5883749278244691</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAE258D-D6D7-43EA-AF1F-FF9AF22B30B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F84BEE-4183-4EC5-B461-052D94F25468}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D11CB-6608-4754-88E4-760E36E3D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE0DC8-1E3E-48AA-A80C-08AACB971578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h08,S4d1023h07,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h09,S3c0421h11,S4d1023h09,S1aH3,S3c0421h13,S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S3c0421h08,S4aH5,S4d1023h08,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17</t>
-  </si>
-  <si>
-    <t>S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h23,S3aH8,S4d1023h03,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</t>
+    <t>S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S1b0130h08,S4d1023h07,S4d1023h18,S6aH5,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1aH3,S3c0421h13,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3</t>
+  </si>
+  <si>
+    <t>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h23,S3aH8,S4aH8,S4d1023h03,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h23,S3aH8,S4d1023h03,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</v>
+        <v>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h23,S3aH8,S4aH8,S4d1023h03,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h08,S4d1023h07,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h09,S3c0421h11,S4d1023h09,S1aH3,S3c0421h13,S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S3c0421h08,S4aH5,S4d1023h08,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17</v>
+        <v>S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S1b0130h08,S4d1023h07,S4d1023h18,S6aH5,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1aH3,S3c0421h13,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A646FD2F-48EA-455E-BC13-E040BABE74CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD952D2E-A6DA-4423-BDAE-B00273599DE1}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D0D4FC-C0F1-434E-B696-6DD080BFADC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DDAA46-0D71-4B3C-85CE-640781B522CF}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>8.0028228652081868E-2</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075641</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>0.5883749278244691</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903401E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557838</v>
+        <v>8.0028228652081868E-2</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F84BEE-4183-4EC5-B461-052D94F25468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C477F-70CB-4332-B2BD-EFB67B661A0C}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE0DC8-1E3E-48AA-A80C-08AACB971578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77962D7D-D2AE-493E-9833-7DD068538945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S1b0130h08,S4d1023h07,S4d1023h18,S6aH5,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1aH3,S3c0421h13,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3</t>
-  </si>
-  <si>
-    <t>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h23,S3aH8,S4aH8,S4d1023h03,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7</t>
+    <t>S4d1023h18,S6aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S3c0421h08,S4aH5,S4d1023h08,S1b0130h08,S4d1023h07,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S3c0421h10,S4d1023h11,S4d1023h14,S1aH4,S3c0421h18,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
+  </si>
+  <si>
+    <t>S4aH8,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h23,S3aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S3c0421h19,S4aH1,S6aH1,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h23,S3aH8,S4aH8,S4d1023h03,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7</v>
+        <v>S4aH8,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h23,S3aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S3c0421h18,S1b0130h14,S1b0130h16,S3aH3,S1b0130h08,S4d1023h07,S4d1023h18,S6aH5,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10,S1aH3,S3c0421h13,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3</v>
+        <v>S4d1023h18,S6aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S3c0421h08,S4aH5,S4d1023h08,S1b0130h08,S4d1023h07,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S3c0421h10,S4d1023h11,S4d1023h14,S1aH4,S3c0421h18,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD952D2E-A6DA-4423-BDAE-B00273599DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A142F950-EB7C-47A4-8790-55BC3F12FE12}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DDAA46-0D71-4B3C-85CE-640781B522CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE62BD7B-735E-4275-8B44-AA2F71AD1A36}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557838</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>0.5883749278244691</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903401E-2</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210897E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3121,7 +3121,7 @@
         <v>79</v>
       </c>
       <c r="N9">
-        <v>8.0028228652081868E-2</v>
+        <v>8.0028228652081854E-2</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C477F-70CB-4332-B2BD-EFB67B661A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D66AAD-CCE6-4176-9CD5-BB82AC27702D}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77962D7D-D2AE-493E-9833-7DD068538945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C161EEC7-55BE-456F-AFBA-7DFFC00C87AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4d1023h18,S6aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S3c0421h08,S4aH5,S4d1023h08,S1b0130h08,S4d1023h07,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S3c0421h10,S4d1023h11,S4d1023h14,S1aH4,S3c0421h18,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
-  </si>
-  <si>
-    <t>S4aH8,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h23,S3aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
+    <t>S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h08,S4d1023h07,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S4d1023h18,S6aH5,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1aH4,S3c0421h18,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
+  </si>
+  <si>
+    <t>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4d1023h03,S1b0130h23,S3aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S3c0421h19,S4aH1,S6aH1,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH8,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S4d1023h03,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h23,S3aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
+        <v>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4d1023h03,S1b0130h23,S3aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S3c0421h19,S4aH1,S6aH1,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4d1023h18,S6aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h17,S4d1023h10,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1aH3,S3c0421h13,S1b0130h14,S1b0130h16,S3aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S3c0421h08,S4aH5,S4d1023h08,S1b0130h08,S4d1023h07,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S3c0421h10,S4d1023h11,S4d1023h14,S1aH4,S3c0421h18,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
+        <v>S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h08,S4d1023h07,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S4d1023h18,S6aH5,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1aH4,S3c0421h18,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A142F950-EB7C-47A4-8790-55BC3F12FE12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B6679-A67D-4EC2-8902-24111A81376F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE62BD7B-735E-4275-8B44-AA2F71AD1A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F635108-36E0-49CB-A5A3-E30FF802C4A1}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>8.0028228652081854E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903387E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>0.5883749278244691</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N9">
-        <v>8.0028228652081854E-2</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D66AAD-CCE6-4176-9CD5-BB82AC27702D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFA8E-C32C-4A1E-B7D5-B584B76CEF3F}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C161EEC7-55BE-456F-AFBA-7DFFC00C87AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A5D91-2E76-4C39-A974-0BD6837F8FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h08,S4d1023h07,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S4d1023h18,S6aH5,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1aH4,S3c0421h18,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
-  </si>
-  <si>
-    <t>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4d1023h03,S1b0130h23,S3aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S3c0421h19,S4aH1,S6aH1,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
+    <t>S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH4,S3c0421h18,S4d1023h18,S6aH5,S1b0130h08,S4d1023h07,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
+  </si>
+  <si>
+    <t>S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S4aH8,S1b0130h23,S3aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4d1023h03,S1b0130h23,S3aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1b0130h22,S2aH1,S3aH7,S5aH8,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S3c0421h19,S4aH1,S6aH1,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
+        <v>S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S4aH8,S1b0130h23,S3aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h08,S4d1023h07,S1b0130h17,S4d1023h10,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S4d1023h18,S6aH5,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1aH4,S3c0421h18,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
+        <v>S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH4,S3c0421h18,S4d1023h18,S6aH5,S1b0130h08,S4d1023h07,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B6679-A67D-4EC2-8902-24111A81376F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B11068-E7AA-4D13-82F0-2B63054C2C45}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F635108-36E0-49CB-A5A3-E30FF802C4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142046F4-890A-4F96-B7D0-DE1F4973794E}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N5">
-        <v>8.0028228652081854E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>0.19493167383075638</v>
+        <v>8.0028228652081854E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFA8E-C32C-4A1E-B7D5-B584B76CEF3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002BA90-E387-4003-B7DA-F6FD3C1EE84A}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A5D91-2E76-4C39-A974-0BD6837F8FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F647D96-A152-4D51-9180-D2253D6DF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH4,S3c0421h18,S4d1023h18,S6aH5,S1b0130h08,S4d1023h07,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</t>
-  </si>
-  <si>
-    <t>S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S4aH8,S1b0130h23,S3aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</t>
+    <t>S4d1023h18,S6aH5,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1aH4,S3c0421h18,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h14,S1b0130h16,S3aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h08,S4d1023h07,S3c0421h08,S4aH5,S4d1023h08,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S4aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S3c0421h19,S4aH1,S6aH1,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h23,S3aH8,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S3c0421h19,S4aH1,S6aH1,S4aH8,S1b0130h23,S3aH8,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05</v>
+        <v>S4aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S3c0421h19,S4aH1,S6aH1,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h23,S3aH8,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h14,S1b0130h16,S3aH3,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH4,S3c0421h18,S4d1023h18,S6aH5,S1b0130h08,S4d1023h07,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h09,S3c0421h11,S4d1023h09,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5</v>
+        <v>S4d1023h18,S6aH5,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1aH4,S3c0421h18,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h14,S1b0130h16,S3aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h08,S4d1023h07,S3c0421h08,S4aH5,S4d1023h08,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B11068-E7AA-4D13-82F0-2B63054C2C45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A8410-3E44-4C92-9C49-BD0BC9E4CC69}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142046F4-890A-4F96-B7D0-DE1F4973794E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5CB42D-2925-4CA7-A04B-75391A369812}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557836</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0028228652081868E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3016,7 +3016,7 @@
         <v>86</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210883E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>0.19493167383075638</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>8.0028228652081854E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N9">
-        <v>0.5883749278244691</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002BA90-E387-4003-B7DA-F6FD3C1EE84A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52496839-DBA2-4855-A9D5-58934A8D5A62}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F647D96-A152-4D51-9180-D2253D6DF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940115ED-B64D-4782-AE1B-05FF7503AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4d1023h18,S6aH5,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1aH4,S3c0421h18,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h14,S1b0130h16,S3aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h08,S4d1023h07,S3c0421h08,S4aH5,S4d1023h08,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4</t>
-  </si>
-  <si>
-    <t>S4aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S3c0421h19,S4aH1,S6aH1,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h23,S3aH8,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</t>
+    <t>S1aH4,S3c0421h18,S1b0130h08,S4d1023h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h14,S1b0130h16,S3aH3,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10</t>
+  </si>
+  <si>
+    <t>S3c0421h19,S4aH1,S6aH1,S1b0130h23,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S4d1023h03,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S4d1023h03,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S3c0421h19,S4aH1,S6aH1,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S1b0130h23,S3aH8,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05</v>
+        <v>S3c0421h19,S4aH1,S6aH1,S1b0130h23,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S4d1023h03,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4d1023h18,S6aH5,S1b0130h17,S4d1023h10,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1aH4,S3c0421h18,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S1b0130h14,S1b0130h16,S3aH3,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h08,S4d1023h07,S3c0421h08,S4aH5,S4d1023h08,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4</v>
+        <v>S1aH4,S3c0421h18,S1b0130h08,S4d1023h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h14,S1b0130h16,S3aH3,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A8410-3E44-4C92-9C49-BD0BC9E4CC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC5496-0B69-45EF-9B70-332CD67EC44F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5CB42D-2925-4CA7-A04B-75391A369812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5EF2E-01CA-4AD4-BB5E-C421A93F9E6A}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2946,7 +2946,7 @@
         <v>83</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>8.0028228652081868E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210897E-2</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.5883749278244691</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3086,7 +3086,7 @@
         <v>88</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903401E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557838</v>
+        <v>8.0028228652081854E-2</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52496839-DBA2-4855-A9D5-58934A8D5A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38722BC-CA79-41E7-89AA-5C790A5BC22D}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940115ED-B64D-4782-AE1B-05FF7503AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6998FE71-C7AE-42C8-B1D2-D006119BE921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S3c0421h18,S1b0130h08,S4d1023h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h14,S1b0130h16,S3aH3,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10</t>
-  </si>
-  <si>
-    <t>S3c0421h19,S4aH1,S6aH1,S1b0130h23,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S4d1023h03,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8</t>
+    <t>S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h17,S4d1023h10,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH3,S3c0421h13,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S3c0421h08,S4aH5,S4d1023h08,S1b0130h14,S1b0130h16,S3aH3,S3c0421h10,S4d1023h11,S4d1023h14,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH4,S3c0421h18,S1b0130h08,S4d1023h07,S4d1023h18,S6aH5,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3</t>
+  </si>
+  <si>
+    <t>S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S4d1023h03,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h22,S2aH1,S3aH7,S5aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S3c0421h19,S4aH1,S6aH1,S1b0130h23,S3aH8,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3c0421h19,S4aH1,S6aH1,S1b0130h23,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S4d1023h03,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7,S4aH8,S1b0130h22,S2aH1,S3aH7,S5aH8,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8</v>
+        <v>S1aH1,S2aH7,S3c0421h20,S3c0421h22,S3c0421h23,S4d1023h05,S1b0130h01,S1b0130h05,S3c0421h21,S4d1023h01,S5aH2,S6aH2,S6aH8,S1aH2,S1aH7,S3aH6,S3c0421h02,S4aH7,S4d1023h04,S4d1023h20,S5aH6,S5aH7,S6aH6,S1b0130h02,S1b0130h06,S2aH6,S3aH1,S4d1023h24,S4d1023h03,S1b0130h21,S3aH2,S3c0421h04,S4d1023h02,S2aH2,S4aH6,S4d1023h21,S4d1023h22,S1b0130h22,S2aH1,S3aH7,S5aH8,S1aH6,S1b0130h04,S1b0130h19,S3c0421h05,S1b0130h20,S3c0421h03,S3c0421h24,S4d1023h23,S3c0421h19,S4aH1,S6aH1,S1b0130h23,S3aH8,S2aH8,S3c0421h01,S3c0421h06,S4aH2,S4d1023h06,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S4d1023h19,S5aH1,S6aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S3c0421h18,S1b0130h08,S4d1023h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h14,S1b0130h16,S3aH3,S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1aH3,S3c0421h13,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S3c0421h08,S4aH5,S4d1023h08,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3,S4d1023h18,S6aH5,S3c0421h10,S4d1023h11,S4d1023h14,S1b0130h17,S4d1023h10</v>
+        <v>S1b0130h12,S1b0130h13,S3c0421h07,S3c0421h09,S3c0421h17,S4d1023h17,S1b0130h17,S4d1023h10,S1b0130h11,S3aH4,S3c0421h14,S4aH3,S4aH4,S1aH3,S3c0421h13,S1b0130h09,S3c0421h11,S4d1023h09,S1b0130h18,S3c0421h12,S4d1023h16,S5aH4,S6aH3,S6aH4,S3c0421h08,S4aH5,S4d1023h08,S1b0130h14,S1b0130h16,S3aH3,S3c0421h10,S4d1023h11,S4d1023h14,S1aH5,S1b0130h15,S2aH4,S2aH5,S5aH5,S1b0130h07,S2aH3,S4d1023h12,S4d1023h13,S1aH4,S3c0421h18,S1b0130h08,S4d1023h07,S4d1023h18,S6aH5,S1b0130h10,S3aH5,S3c0421h15,S3c0421h16,S4d1023h15,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC5496-0B69-45EF-9B70-332CD67EC44F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A0071D-BE60-43D5-8168-7D8D782153E4}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5EF2E-01CA-4AD4-BB5E-C421A93F9E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E0AFB2-5D38-4CBD-BC89-D55BEB6052B3}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>0.5883749278244691</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>0.5883749278244691</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>8.0028228652081868E-2</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903387E-2</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N9">
-        <v>8.0028228652081854E-2</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38722BC-CA79-41E7-89AA-5C790A5BC22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167A4710-E8C1-40F5-A70E-BD73FDA10629}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
